--- a/testing/nvd/National_Vulnerability_Database.xlsx
+++ b/testing/nvd/National_Vulnerability_Database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1226"/>
+  <dimension ref="A1:E1516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33657,6 +33657,7972 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>CVE-2020-26037</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2020-26037</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1227" t="inlineStr">
+        <is>
+          <t>Directory Traversal vulnerability in Server functionalty in Even Balance Punkbuster version 1.902 before 1.905 allows remote attackers to execute arbitrary code.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>CVE-2022-24989</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2022-24989</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="E1228" t="inlineStr">
+        <is>
+          <t>TerraMaster NAS through 4.2.30 allows remote WAN attackers to execute arbitrary code as root via the raidtype and diskstring parameters for PHP Object Instantiation to the api.php?mobile/createRaid URI. (Shell metacharacters can be placed in raidtype because popen is used without any sanitization.) The credentials from CVE-2022-24990 exploitation can be used.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>CVE-2022-4782</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2022-4782</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1229" t="inlineStr">
+        <is>
+          <t>The ClickFunnels WordPress plugin through 3.1.1 does not validate and escape one of its shortcode attributes, which could allow users with a role as low as contributor to perform Stored Cross-Site Scripting attack.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>CVE-2022-4894</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2022-4894</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1230" t="inlineStr">
+        <is>
+          <t>Certain HP and Samsung Printer software packages may potentially be vulnerable to elevation of privilege due to Uncontrolled Search Path Element.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>CVE-2023-0058</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-0058</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1231" t="inlineStr">
+        <is>
+          <t>The Tiempo.com WordPress plugin through 0.1.2 does not have CSRF check when creating and editing its shortcode, and is missing sanitisation as well as escaping, which could allow attackers to make logged in admin add Stored XSS payloads via a CSRF attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>CVE-2023-0274</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-0274</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1232" t="inlineStr">
+        <is>
+          <t>The URL Params WordPress plugin before 2.5 does not validate and escape some of its shortcode attributes before outputting them back in a page/post where the shortcode is embed, which could allow users with the contributor role and above to perform Stored Cross-Site Scripting attacks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>CVE-2023-0551</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-0551</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1233" t="inlineStr">
+        <is>
+          <t>The REST API TO MiniProgram WordPress plugin through 4.6.1 does not have authorisation and CSRF checks in an AJAX action, allowing ay authenticated users, such as subscriber to call and delete arbitrary attachments</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>CVE-2023-0579</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-0579</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1234" t="inlineStr">
+        <is>
+          <t>The YARPP WordPress plugin before 5.30.3 does not validate and escape some of its shortcode attributes before using them in SQL statement/s, which could allow any authenticated users, such as subscribers to perform SQL Injection attacks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>CVE-2023-1110</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-1110</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1235" t="inlineStr">
+        <is>
+          <t>The Yellow Yard Searchbar WordPress plugin before 2.8.12 does not validate and escape some of its shortcode attributes before outputting them back in a page/post where the shortcode is embed, which could allow users with the contributor role and above to perform Stored Cross-Site Scripting attacks</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>CVE-2023-1465</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-1465</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1236" t="inlineStr">
+        <is>
+          <t>The WP EasyPay WordPress plugin before 4.1 does not escape some generated URLs before outputting them back in pages, leading to Reflected Cross-Site Scripting issues which could be used against high privilege users such as admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>CVE-2023-1977</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-1977</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1237" t="inlineStr">
+        <is>
+          <t>The Booking Manager WordPress plugin before 2.0.29 does not validate URLs input in it's admin panel or in shortcodes for showing events from a remote .ics file, allowing an attacker with privileges as low as Subscriber to perform SSRF attacks on the sites internal network.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>CVE-2023-20013</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20013</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1238" t="inlineStr">
+        <is>
+          <t>Multiple vulnerabilities in Cisco Intersight Private Virtual Appliance could allow an authenticated, remote attacker to execute arbitrary commands using root-level privileges. The attacker would need to have Administrator privileges on the affected device to exploit these vulnerabilities.
+ These vulnerabilities are due to insufficient input validation when extracting uploaded software packages. An attacker could exploit these vulnerabilities by authenticating to an affected device and uploading a crafted software package. A successful exploit could allow the attacker to execute commands on the underlying operating system with root-level privileges.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>CVE-2023-20017</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20017</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1239" t="inlineStr">
+        <is>
+          <t>Multiple vulnerabilities in Cisco Intersight Private Virtual Appliance could allow an authenticated, remote attacker to execute arbitrary commands using root-level privileges. The attacker would need to have Administrator privileges on the affected device to exploit these vulnerabilities.
+ These vulnerabilities are due to insufficient input validation when extracting uploaded software packages. An attacker could exploit these vulnerabilities by authenticating to an affected device and uploading a crafted software package. A successful exploit could allow the attacker to execute commands on the underlying operating system with root-level privileges.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>CVE-2023-20111</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20111</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1240" t="inlineStr">
+        <is>
+          <t>A vulnerability in the web-based management interface of Cisco Identity Services Engine (ISE) could allow an authenticated, remote attacker to access sensitive information.
+ This vulnerability is due to the improper storage of sensitive information within the web-based management interface. An attacker could exploit this vulnerability by logging in to the web-based management interface and viewing hidden fields within the application. A successful exploit could allow the attacker to access sensitive information, including device entry credentials, that could aid the attacker in further attacks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>CVE-2023-20197</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20197</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1241" t="inlineStr">
+        <is>
+          <t>A vulnerability in the filesystem image parser for Hierarchical File System Plus (HFS+) of ClamAV could allow an unauthenticated, remote attacker to cause a denial of service (DoS) condition on an affected device.
+ This vulnerability is due to an incorrect check for completion when a file is decompressed, which may result in a loop condition that could cause the affected software to stop responding. An attacker could exploit this vulnerability by submitting a crafted HFS+ filesystem image to be scanned by ClamAV on an affected device. A successful exploit could allow the attacker to cause the ClamAV scanning process to stop responding, resulting in a DoS condition on the affected software and consuming available system resources.
+ For a description of this vulnerability, see the ClamAV blog .</t>
+        </is>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>CVE-2023-20201</t>
+        </is>
+      </c>
+      <c r="C1242" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20201</t>
+        </is>
+      </c>
+      <c r="D1242" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1242" t="inlineStr">
+        <is>
+          <t>Multiple vulnerabilities in the web-based management interface of Cisco Prime Infrastructure and Cisco Evolved Programmable Network Manager (EPNM) could allow an authenticated, remote attacker to conduct a stored cross-site scripting (XSS) attack against a user of the interface on an affected device.
+ These vulnerabilities are due to insufficient validation of user-supplied input. An attacker could exploit these vulnerabilities by persuading a user of an affected interface to view a page containing malicious HTML or script content. A successful exploit could allow the attacker to execute arbitrary script code in the context of the affected interface or access sensitive, browser-based information. To exploit these vulnerabilities, the attacker must have valid credentials to access the web-based management interface of the affected device.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1243" t="inlineStr">
+        <is>
+          <t>CVE-2023-20203</t>
+        </is>
+      </c>
+      <c r="C1243" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20203</t>
+        </is>
+      </c>
+      <c r="D1243" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1243" t="inlineStr">
+        <is>
+          <t>Multiple vulnerabilities in the web-based management interface of Cisco Prime Infrastructure and Cisco Evolved Programmable Network Manager (EPNM) could allow an authenticated, remote attacker to conduct a stored cross-site scripting (XSS) attack against a user of the interface on an affected device.
+ These vulnerabilities are due to insufficient validation of user-supplied input. An attacker could exploit these vulnerabilities by persuading a user of an affected interface to view a page containing malicious HTML or script content. A successful exploit could allow the attacker to execute arbitrary script code in the context of the affected interface or access sensitive, browser-based information. To exploit these vulnerabilities, the attacker must have valid credentials to access the web-based management interface of the affected device.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1244" t="inlineStr">
+        <is>
+          <t>CVE-2023-20205</t>
+        </is>
+      </c>
+      <c r="C1244" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20205</t>
+        </is>
+      </c>
+      <c r="D1244" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1244" t="inlineStr">
+        <is>
+          <t>Multiple vulnerabilities in the web-based management interface of Cisco Prime Infrastructure and Cisco Evolved Programmable Network Manager (EPNM) could allow an authenticated, remote attacker to conduct a stored cross-site scripting (XSS) attack against a user of the interface on an affected device.
+ These vulnerabilities are due to insufficient validation of user-supplied input. An attacker could exploit these vulnerabilities by persuading a user of an affected interface to view a page containing malicious HTML or script content. A successful exploit could allow the attacker to execute arbitrary script code in the context of the affected interface or access sensitive, browser-based information. To exploit these vulnerabilities, the attacker must have valid credentials to access the web-based management interface of the affected device.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t>CVE-2023-20209</t>
+        </is>
+      </c>
+      <c r="C1245" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20209</t>
+        </is>
+      </c>
+      <c r="D1245" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1245" t="inlineStr">
+        <is>
+          <t>A vulnerability in the web-based management interface of Cisco Expressway Series and Cisco TelePresence Video Communication Server (VCS) could allow an authenticated, remote attacker with read-write privileges on the application to perform a command injection attack that could result in remote code execution on an affected device.
+ This vulnerability is due to insufficient validation of user-supplied input. An attacker could exploit this vulnerability by sending a crafted request to the web-based management interface of an affected device. A successful exploit could allow the attacker to establish a remote shell with root privileges.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>CVE-2023-20211</t>
+        </is>
+      </c>
+      <c r="C1246" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20211</t>
+        </is>
+      </c>
+      <c r="D1246" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1246" t="inlineStr">
+        <is>
+          <t>A vulnerability in the web-based management interface of Cisco Unified Communications Manager (Unified CM) and Cisco Unified Communications Manager Session Management Edition (Unified CM SME) could allow an authenticated, remote attacker to conduct SQL injection attacks on an affected system. 
+ This vulnerability is due to improper validation of user-supplied input. An attacker could exploit this vulnerability by authenticating to the application as a user with read-only or higher privileges and sending crafted HTTP requests to an affected system. A successful exploit could allow the attacker to read or modify data in the underlying database or elevate their privileges.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>CVE-2023-20212</t>
+        </is>
+      </c>
+      <c r="C1247" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20212</t>
+        </is>
+      </c>
+      <c r="D1247" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1247" t="inlineStr">
+        <is>
+          <t>A vulnerability in the AutoIt module of ClamAV could allow an unauthenticated, remote attacker to cause a denial of service (DoS) condition on an affected device. 
+ This vulnerability is due to a logic error in the memory management of an affected device. An attacker could exploit this vulnerability by submitting a crafted AutoIt file to be scanned by ClamAV on the affected device. A successful exploit could allow the attacker to cause the ClamAV scanning process to restart unexpectedly, resulting in a DoS condition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>CVE-2023-20217</t>
+        </is>
+      </c>
+      <c r="C1248" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20217</t>
+        </is>
+      </c>
+      <c r="D1248" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1248" t="inlineStr">
+        <is>
+          <t>A vulnerability in the CLI of Cisco ThousandEyes Enterprise Agent, Virtual Appliance installation type, could allow an authenticated, local attacker to elevate privileges on an affected device.
+ This vulnerability is due to insufficient input validation by the operating system CLI. An attacker could exploit this vulnerability by issuing certain commands using sudo. A successful exploit could allow the attacker to view arbitrary files as root on the underlying operating system. The attacker must have valid credentials on the affected device.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>CVE-2023-20221</t>
+        </is>
+      </c>
+      <c r="C1249" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20221</t>
+        </is>
+      </c>
+      <c r="D1249" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1249" t="inlineStr">
+        <is>
+          <t>A vulnerability in the web-based management interface of Cisco IP Phone 6800, 7800, and 8800 Series with Multiplatform Firmware could allow an unauthenticated, remote attacker to conduct a cross-site request forgery (CSRF) attack against a user of the web-based management interface of an affected system.
+ This vulnerability is due to insufficient CSRF protections for the web-based management interface of an affected device. An attacker could exploit this vulnerability by persuading an authenticated user of the interface to follow a crafted link. A successful exploit could allow the attacker to perform a factory reset of the affected device, resulting in a Denial of Service (DoS) condition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>CVE-2023-20222</t>
+        </is>
+      </c>
+      <c r="C1250" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20222</t>
+        </is>
+      </c>
+      <c r="D1250" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1250" t="inlineStr">
+        <is>
+          <t>A vulnerability in the web-based management interface of Cisco Prime Infrastructure and Cisco Evolved Programmable Network Manager (EPNM) could allow an unauthenticated, remote attacker to conduct a cross-site scripting (XSS) attack against a user of the interface on an affected device.
+ The vulnerability is due to insufficient validation of user-supplied input by the web-based management interface of an affected system. An attacker could exploit this vulnerability by injecting malicious code into specific pages of the interface. A successful exploit could allow the attacker to execute arbitrary script code in the context of the affected interface or access sensitive, browser-based information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>CVE-2023-20224</t>
+        </is>
+      </c>
+      <c r="C1251" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20224</t>
+        </is>
+      </c>
+      <c r="D1251" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1251" t="inlineStr">
+        <is>
+          <t>A vulnerability in the CLI of Cisco ThousandEyes Enterprise Agent, Virtual Appliance installation type, could allow an authenticated, local attacker to elevate privileges to root on an affected device.
+ This vulnerability is due to insufficient input validation of user-supplied CLI arguments. An attacker could exploit this vulnerability by authenticating to an affected device and using crafted commands at the prompt. A successful exploit could allow the attacker to execute arbitrary commands as root. The attacker must have valid credentials on the affected device.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t>CVE-2023-20228</t>
+        </is>
+      </c>
+      <c r="C1252" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20228</t>
+        </is>
+      </c>
+      <c r="D1252" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1252" t="inlineStr">
+        <is>
+          <t>A vulnerability in the web-based management interface of Cisco Integrated Management Controller (IMC) could allow an unauthenticated, remote attacker to conduct a cross-site scripting (XSS) attack against a user of the interface.
+ This vulnerability is due to insufficient validation of user input. An attacker could exploit this vulnerability by persuading a user of an affected interface to click a crafted link. A successful exploit could allow the attacker to execute arbitrary script code in the browser of the targeted user or access sensitive, browser-based information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>CVE-2023-20229</t>
+        </is>
+      </c>
+      <c r="C1253" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20229</t>
+        </is>
+      </c>
+      <c r="D1253" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1253" t="inlineStr">
+        <is>
+          <t>A vulnerability in the CryptoService function of Cisco Duo Device Health Application for Windows could allow an authenticated, local attacker with low privileges to conduct directory traversal attacks and overwrite arbitrary files on an affected system.
+ This vulnerability is due to insufficient input validation. An attacker could exploit this vulnerability by executing a directory traversal attack on an affected host. A successful exploit could allow an attacker to use a cryptographic key to overwrite arbitrary files with SYSTEM-level privileges, resulting in a denial of service (DoS) condition or data loss on the affected system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1254" t="inlineStr">
+        <is>
+          <t>CVE-2023-20232</t>
+        </is>
+      </c>
+      <c r="C1254" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20232</t>
+        </is>
+      </c>
+      <c r="D1254" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1254" t="inlineStr">
+        <is>
+          <t>A vulnerability in the Tomcat implementation for Cisco Unified Contact Center Express (Unified CCX) could allow an unauthenticated, remote attacker to cause a web cache poisoning attack on an affected device. 
+ This vulnerability is due to improper input validation of HTTP requests. An attacker could exploit this vulnerability by sending crafted HTTP requests to a specific API endpoint on the Unified CCX Finesse Portal. A successful exploit could allow the attacker to cause the internal WebProxy to redirect users to an attacker-controlled host.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t>CVE-2023-20237</t>
+        </is>
+      </c>
+      <c r="C1255" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20237</t>
+        </is>
+      </c>
+      <c r="D1255" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1255" t="inlineStr">
+        <is>
+          <t>A vulnerability in Cisco Intersight Virtual Appliance could allow an unauthenticated, adjacent attacker to access internal HTTP services that are otherwise inaccessible.
+ This vulnerability is due to insufficient restrictions on internally accessible http proxies. An attacker could exploit this vulnerability by submitting a crafted CLI command. A successful exploit could allow the attacker access to internal subnets beyond the sphere of their intended access level.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>CVE-2023-20242</t>
+        </is>
+      </c>
+      <c r="C1256" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20242</t>
+        </is>
+      </c>
+      <c r="D1256" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1256" t="inlineStr">
+        <is>
+          <t>A vulnerability in the web-based management interface of Cisco Unified Communications Manager (Unified CM), Cisco Unified CM Session Management Edition (Unified CM SME), and Cisco Unified Communications Manager IM &amp;amp;amp; Presence Service (Unified CM IM&amp;amp;amp;P) could allow an unauthenticated, remote attacker to conduct a cross-site scripting (XSS) attack against a user of the interface.
+ This vulnerability exists because the web-based management interface does not properly validate user-supplied input. An attacker could exploit this vulnerability by persuading a user of the interface to click a crafted link. A successful exploit could allow the attacker to execute arbitrary script code in the context of the affected interface or access sensitive, browser-based information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>CVE-2023-20560</t>
+        </is>
+      </c>
+      <c r="C1257" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20560</t>
+        </is>
+      </c>
+      <c r="D1257" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E1257" t="inlineStr">
+        <is>
+          <t>Insufficient validation of the IOCTL (Input Output Control) input buffer in AMD Ryzen&amp;acirc;&amp;bdquo;&amp;cent; Master may allow a privileged attacker to provide a null value potentially resulting in a Windows crash leading to denial of service.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>CVE-2023-20564</t>
+        </is>
+      </c>
+      <c r="C1258" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20564</t>
+        </is>
+      </c>
+      <c r="D1258" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E1258" t="inlineStr">
+        <is>
+          <t>Insufficient validation in the IOCTL (Input Output Control) input buffer in AMD Ryzen&amp;acirc;&amp;bdquo;&amp;cent; Master may permit a privileged attacker to perform memory reads/writes potentially leading to a loss of confidentiality or arbitrary kernel execution.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1259" t="inlineStr">
+        <is>
+          <t>CVE-2023-2110</t>
+        </is>
+      </c>
+      <c r="C1259" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-2110</t>
+        </is>
+      </c>
+      <c r="D1259" t="inlineStr">
+        <is>
+          <t>2023-08-19</t>
+        </is>
+      </c>
+      <c r="E1259" t="inlineStr">
+        <is>
+          <t>Improper path handling in Obsidian desktop before 1.2.8 on Windows, Linux and macOS allows a crafted webpage to access local files and exfiltrate them to remote web servers via &amp;quot;app://local/&amp;lt;absolute-path&amp;gt;&amp;quot;. This vulnerability can be exploited if a user opens a malicious markdown file in Obsidian, or copies text from a malicious webpage and paste it into Obsidian.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1260" t="inlineStr">
+        <is>
+          <t>CVE-2023-2122</t>
+        </is>
+      </c>
+      <c r="C1260" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-2122</t>
+        </is>
+      </c>
+      <c r="D1260" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1260" t="inlineStr">
+        <is>
+          <t>The Image Optimizer by 10web WordPress plugin before 1.0.27 does not sanitise and escape the iowd_tabs_active parameter before rendering it in the plugin admin panel, leading to a reflected Cross-Site Scripting vulnerability, allowing an attacker to trick a logged in admin to execute arbitrary javascript by clicking a link.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>CVE-2023-2123</t>
+        </is>
+      </c>
+      <c r="C1261" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-2123</t>
+        </is>
+      </c>
+      <c r="D1261" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1261" t="inlineStr">
+        <is>
+          <t>The WP Inventory Manager WordPress plugin before 2.1.0.13 does not sanitise and escape a parameter before outputting it back in the page, leading to a Reflected Cross-Site Scripting.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>CVE-2023-2225</t>
+        </is>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-2225</t>
+        </is>
+      </c>
+      <c r="D1262" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1262" t="inlineStr">
+        <is>
+          <t>The SEO ALert WordPress plugin through 1.59 does not sanitise and escape some of its settings, which could allow high privilege users such as admin to perform Stored Cross-Site Scripting attacks even when the unfiltered_html capability is disallowed (for example in multisite setup).</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>CVE-2023-2254</t>
+        </is>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-2254</t>
+        </is>
+      </c>
+      <c r="D1263" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1263" t="inlineStr">
+        <is>
+          <t>The Ko-fi Button WordPress plugin before 1.3.3 does not properly some of its settings, which could allow high-privilege users to perform Stored Cross-Site Scripting (XSS) attacks even when the unfiltered_html capability is disallowed (for example in multisite setup), and we consider it a low risk.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>CVE-2023-2271</t>
+        </is>
+      </c>
+      <c r="C1264" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-2271</t>
+        </is>
+      </c>
+      <c r="D1264" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1264" t="inlineStr">
+        <is>
+          <t>The Tiempo.com WordPress plugin through 0.1.2 does not have CSRF check when deleting its shortcode, which could allow attackers to make logged in admins delete arbitrary shortcode via a CSRF attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>CVE-2023-2272</t>
+        </is>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-2272</t>
+        </is>
+      </c>
+      <c r="D1265" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1265" t="inlineStr">
+        <is>
+          <t>The Tiempo.com WordPress plugin through 0.1.2 does not sanitise and escape the page parameter before outputting it back in the page, leading to a Reflected Cross-Site Scripting which could be used against high privilege users such as admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>CVE-2023-2316</t>
+        </is>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-2316</t>
+        </is>
+      </c>
+      <c r="D1266" t="inlineStr">
+        <is>
+          <t>2023-08-19</t>
+        </is>
+      </c>
+      <c r="E1266" t="inlineStr">
+        <is>
+          <t>Improper path handling in Typora before 1.6.7 on Windows and Linux allows a crafted webpage to access local files and exfiltrate them to remote web servers via &amp;quot;typora://app/&amp;lt;absolute-path&amp;gt;&amp;quot;. 
+This vulnerability can be exploited if a user opens a malicious markdown file in Typora, or copies text from a malicious webpage and paste it into Typora.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>CVE-2023-2317</t>
+        </is>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-2317</t>
+        </is>
+      </c>
+      <c r="D1267" t="inlineStr">
+        <is>
+          <t>2023-08-19</t>
+        </is>
+      </c>
+      <c r="E1267" t="inlineStr">
+        <is>
+          <t>DOM-based XSS in updater/update.html in Typora before 1.6.7 on Windows and Linux allows a crafted markdown file to run arbitrary JavaScript code in the context of Typora main window via loading typora://app/typemark/updater/update.html in &amp;lt;embed&amp;gt; tag. This vulnerability can be exploited if a user opens a malicious markdown file in Typora, or copies text from a malicious webpage and paste it into Typora.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>CVE-2023-2318</t>
+        </is>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-2318</t>
+        </is>
+      </c>
+      <c r="D1268" t="inlineStr">
+        <is>
+          <t>2023-08-19</t>
+        </is>
+      </c>
+      <c r="E1268" t="inlineStr">
+        <is>
+          <t>DOM-based XSS in src/muya/lib/contentState/pasteCtrl.js in MarkText 0.17.1 and before on Windows, Linux and macOS allows arbitrary JavaScript code to run in the context of MarkText main window. This vulnerability can be exploited if a user copies text from a malicious webpage and paste it into MarkText.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>CVE-2023-25647</t>
+        </is>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-25647</t>
+        </is>
+      </c>
+      <c r="D1269" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1269" t="inlineStr">
+        <is>
+          <t>There is a permission and access control vulnerability in some ZTE mobile phones. Due to improper access control, applications in mobile phone could&amp;Acirc;&amp;nbsp;monitor&amp;Acirc;&amp;nbsp;the touch&amp;Acirc;&amp;nbsp;event.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>CVE-2023-26140</t>
+        </is>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-26140</t>
+        </is>
+      </c>
+      <c r="D1270" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1270" t="inlineStr">
+        <is>
+          <t>Versions of the package @excalidraw/excalidraw from 0.0.0 are vulnerable to Cross-site Scripting (XSS) via embedded links in whiteboard objects due to improper input sanitization.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>CVE-2023-26469</t>
+        </is>
+      </c>
+      <c r="C1271" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-26469</t>
+        </is>
+      </c>
+      <c r="D1271" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1271" t="inlineStr">
+        <is>
+          <t>In Jorani 1.0.0, an attacker could leverage path traversal to access files and execute code on the server.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1272" t="inlineStr">
+        <is>
+          <t>CVE-2023-26530</t>
+        </is>
+      </c>
+      <c r="C1272" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-26530</t>
+        </is>
+      </c>
+      <c r="D1272" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1272" t="inlineStr">
+        <is>
+          <t>Unauth. Reflected Cross-Site Scripting (XSS) vulnerability in Paul Kehrer Updraft plugin &amp;lt;=&amp;Acirc;&amp;nbsp;0.6.1 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>CVE-2023-2737</t>
+        </is>
+      </c>
+      <c r="C1273" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-2737</t>
+        </is>
+      </c>
+      <c r="D1273" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1273" t="inlineStr">
+        <is>
+          <t>Improper log permissions in SafeNet Authentication Service&amp;Acirc;&amp;nbsp;Version 3.4.0 on Windows allows an authenticated attacker to cause a denial of service via local privilege escalation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>CVE-2023-27471</t>
+        </is>
+      </c>
+      <c r="C1274" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-27471</t>
+        </is>
+      </c>
+      <c r="D1274" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1274" t="inlineStr">
+        <is>
+          <t>An issue was discovered in Insyde InsydeH2O with kernel 5.0 through 5.5. UEFI implementations do not correctly protect and validate information contained in the 'MeSetup' UEFI variable. On some systems, this variable can be overwritten using operating system APIs. Exploitation of this vulnerability could potentially lead to denial of service for the platform.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1275" t="inlineStr">
+        <is>
+          <t>CVE-2023-27576</t>
+        </is>
+      </c>
+      <c r="C1275" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-27576</t>
+        </is>
+      </c>
+      <c r="D1275" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1275" t="inlineStr">
+        <is>
+          <t>An issue was discovered in phpList 3.6.12. Due to an access error, it was possible to manipulate and edit data of the system's super admin, allowing one to perform an account takeover of the user with super-admin permission.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1276" t="inlineStr">
+        <is>
+          <t>CVE-2023-28075</t>
+        </is>
+      </c>
+      <c r="C1276" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-28075</t>
+        </is>
+      </c>
+      <c r="D1276" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1276" t="inlineStr">
+        <is>
+          <t>Dell BIOS contain a Time-of-check Time-of-use vulnerability in BIOS. A local authenticated malicious user with physical access to the system could potentially exploit this vulnerability by using a specifically timed DMA transaction during an SMI in order to gain arbitrary code execution on the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1277" t="inlineStr">
+        <is>
+          <t>CVE-2023-28479 (tigergraph)</t>
+        </is>
+      </c>
+      <c r="C1277" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-28479</t>
+        </is>
+      </c>
+      <c r="D1277" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E1277" t="inlineStr">
+        <is>
+          <t>An issue was discovered in Tigergraph Enterprise 3.7.0. The TigerGraph platform installs a full development toolchain within every TigerGraph deployment. An attacker is able to compile new executables on each Tigergraph system and modify system and Tigergraph binaries.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>CVE-2023-28533</t>
+        </is>
+      </c>
+      <c r="C1278" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-28533</t>
+        </is>
+      </c>
+      <c r="D1278" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1278" t="inlineStr">
+        <is>
+          <t>Auth. (admin+) Stored Cross-Site Scripting (XSS) vulnerability in M Williams Cab Grid plugin &amp;lt;=&amp;Acirc;&amp;nbsp;1.5.15 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>CVE-2023-28622</t>
+        </is>
+      </c>
+      <c r="C1279" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-28622</t>
+        </is>
+      </c>
+      <c r="D1279" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1279" t="inlineStr">
+        <is>
+          <t>Auth. (author+) Stored Cross-Site Scripting (XSS) vulnerability in Trident Technolabs Easy Slider Revolution plugin &amp;lt;=&amp;Acirc;&amp;nbsp;1.0.0 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1280" t="inlineStr">
+        <is>
+          <t>CVE-2023-28690</t>
+        </is>
+      </c>
+      <c r="C1280" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-28690</t>
+        </is>
+      </c>
+      <c r="D1280" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1280" t="inlineStr">
+        <is>
+          <t>Auth. (admin+) Stored Cross-Site Scripting (XSS) vulnerability in Marco Steinbrecher WP BrowserUpdate plugin &amp;lt;=&amp;Acirc;&amp;nbsp;4.5 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1281" t="inlineStr">
+        <is>
+          <t>CVE-2023-28693</t>
+        </is>
+      </c>
+      <c r="C1281" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-28693</t>
+        </is>
+      </c>
+      <c r="D1281" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1281" t="inlineStr">
+        <is>
+          <t>Unauth. Reflected Cross-Site Scripting (XSS) vulnerability in Balasaheb Bhise Advanced Youtube Channel Pagination plugin &amp;lt;=&amp;Acirc;&amp;nbsp;1.0 version.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1282" t="inlineStr">
+        <is>
+          <t>CVE-2023-28783</t>
+        </is>
+      </c>
+      <c r="C1282" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-28783</t>
+        </is>
+      </c>
+      <c r="D1282" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1282" t="inlineStr">
+        <is>
+          <t>Auth. (shop manager+) Stored Cross-Site Scripting (XSS) vulnerability in PHPRADAR Woocommerce Tip/Donation plugin &amp;lt;=&amp;Acirc;&amp;nbsp;1.2 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1283" t="inlineStr">
+        <is>
+          <t>CVE-2023-2910</t>
+        </is>
+      </c>
+      <c r="C1283" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-2910</t>
+        </is>
+      </c>
+      <c r="D1283" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1283" t="inlineStr">
+        <is>
+          <t>Improper neutralization of special elements used in a command ('Command Injection') vulnerability in Printer service functionality in ASUSTOR Data Master (ADM) allows remote unauthorized users to execute arbitrary commands via unspecified vectors. Affected products and versions include: ADM 4.0.6.RIS1, 4.1.0 and below as well as ADM 4.2.2.RI61 and below.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>CVE-2023-2914</t>
+        </is>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-2914</t>
+        </is>
+      </c>
+      <c r="D1284" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1284" t="inlineStr">
+        <is>
+          <t>The Rockwell Automation Thinmanager Thinserver is impacted by an improper input validation vulnerability, an integer overflow condition exists in the affected products. When the ThinManager processes incoming messages, a read access violation occurs and terminates the process. A malicious user could exploit this vulnerability by sending a crafted synchronization protocol message and causing a denial of service condition in the software.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1285" t="inlineStr">
+        <is>
+          <t>CVE-2023-2915</t>
+        </is>
+      </c>
+      <c r="C1285" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-2915</t>
+        </is>
+      </c>
+      <c r="D1285" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1285" t="inlineStr">
+        <is>
+          <t>The Rockwell Automation Thinmanager Thinserver is impacted by an improper input validation vulnerability, Due to improper input validation, a path traversal vulnerability exists when the ThinManager software processes a certain function. If exploited, an unauthenticated remote threat actor can delete arbitrary files with system privileges.   A malicious user could exploit this vulnerability by sending a specifically crafted synchronization protocol message resulting in a denial-of-service condition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>CVE-2023-2917</t>
+        </is>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-2917</t>
+        </is>
+      </c>
+      <c r="D1286" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1286" t="inlineStr">
+        <is>
+          <t>The Rockwell Automation Thinmanager Thinserver is impacted by an improper input validation vulnerability.&amp;Acirc;&amp;nbsp;&amp;Acirc;&amp;nbsp;Due to an improper input validation, a path traversal vulnerability exists, via the filename field, when the ThinManager processes a certain function. If exploited, an unauthenticated remote attacker can upload arbitrary files to any directory on the disk drive where ThinServer.exe is installed. &amp;Acirc;&amp;nbsp;A malicious user could exploit this vulnerability by sending a crafted synchronization protocol message and potentially gain remote code execution abilities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1287" t="inlineStr">
+        <is>
+          <t>CVE-2023-29182</t>
+        </is>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-29182</t>
+        </is>
+      </c>
+      <c r="D1287" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1287" t="inlineStr">
+        <is>
+          <t>A stack-based buffer overflow vulnerability [CWE-121]&amp;Acirc;&amp;nbsp;in Fortinet FortiOS before 7.0.3 allows a privileged attacker to execute arbitrary code via specially crafted CLI commands, provided the attacker were able to evade FortiOS stack protections.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>CVE-2023-29387</t>
+        </is>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-29387</t>
+        </is>
+      </c>
+      <c r="D1288" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1288" t="inlineStr">
+        <is>
+          <t>Auth. (contributor+) Stored Cross-Site Scripting (XSS) vulnerability in Julien Crego Manager for Icomoon plugin &amp;lt;=&amp;Acirc;&amp;nbsp;2.0 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>CVE-2023-2971</t>
+        </is>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-2971</t>
+        </is>
+      </c>
+      <c r="D1289" t="inlineStr">
+        <is>
+          <t>2023-08-19</t>
+        </is>
+      </c>
+      <c r="E1289" t="inlineStr">
+        <is>
+          <t>Improper path handling in Typora before 1.7.0-dev on Windows and Linux allows a crafted webpage to access local files and exfiltrate them to remote web servers via &amp;quot;typora://app/typemark/&amp;quot;. This vulnerability can be exploited if a user opens a malicious markdown file in Typora, or copies text from a malicious webpage and paste it into Typora.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>CVE-2023-30473</t>
+        </is>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-30473</t>
+        </is>
+      </c>
+      <c r="D1290" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1290" t="inlineStr">
+        <is>
+          <t>Unauth. Reflected Cross-Site Scripting (XSS) vulnerability in Maxim Glazunov YML for Yandex Market plugin &amp;lt;=&amp;Acirc;&amp;nbsp;3.10.7 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>CVE-2023-30499</t>
+        </is>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-30499</t>
+        </is>
+      </c>
+      <c r="D1291" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1291" t="inlineStr">
+        <is>
+          <t>Unauth. Reflected Cross-Site Scripting (XSS) vulnerability in FolioVision FV Flowplayer Video Player plugin &amp;lt;=&amp;Acirc;&amp;nbsp;7.5.32.7212 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>CVE-2023-30779</t>
+        </is>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-30779</t>
+        </is>
+      </c>
+      <c r="D1292" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1292" t="inlineStr">
+        <is>
+          <t>Unauth. Reflected Cross-Site Scripting (XSS) vulnerability in Jonathan Daggerhart Query Wrangler plugin &amp;lt;=&amp;Acirc;&amp;nbsp;1.5.51 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>CVE-2023-3078</t>
+        </is>
+      </c>
+      <c r="C1293" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-3078</t>
+        </is>
+      </c>
+      <c r="D1293" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1293" t="inlineStr">
+        <is>
+          <t>An uncontrolled search path vulnerability was reported in the Lenovo Universal Device Client (UDC) that could allow an attacker with local access to execute code with elevated privileges.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>CVE-2023-30782</t>
+        </is>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-30782</t>
+        </is>
+      </c>
+      <c r="D1294" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1294" t="inlineStr">
+        <is>
+          <t>Unauth. Reflected Cross-Site Scripting (XSS) vulnerability in Andy Moyle Church Admin plugin &amp;lt;=&amp;Acirc;&amp;nbsp;3.7.5 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>CVE-2023-30784</t>
+        </is>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-30784</t>
+        </is>
+      </c>
+      <c r="D1295" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1295" t="inlineStr">
+        <is>
+          <t>Auth. (contributor+) Stored Cross-Site Scripting (XSS) vulnerability in Kaya Studio Kaya QR Code Generator plugin &amp;lt;=&amp;Acirc;&amp;nbsp;1.5.2 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>CVE-2023-30785</t>
+        </is>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-30785</t>
+        </is>
+      </c>
+      <c r="D1296" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1296" t="inlineStr">
+        <is>
+          <t>Unauth. Reflected Cross-Site Scripting (XSS) vulnerability in I Thirteen Web Solution Video Grid plugin &amp;lt;=&amp;Acirc;&amp;nbsp;1.21 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>CVE-2023-30786</t>
+        </is>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-30786</t>
+        </is>
+      </c>
+      <c r="D1297" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1297" t="inlineStr">
+        <is>
+          <t>Auth. (admin+) Stored Cross-Site Scripting (XSS) vulnerability in Benjamin Guy Captcha Them All plugin &amp;lt;=&amp;Acirc;&amp;nbsp;1.3.3 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>CVE-2023-30871</t>
+        </is>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-30871</t>
+        </is>
+      </c>
+      <c r="D1298" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1298" t="inlineStr">
+        <is>
+          <t>Unauth. Reflected Cross-Site Scripting (XSS) vulnerability in PT Woo Plugins (by Webdados) Stock Exporter for WooCommerce plugin &amp;lt;=&amp;Acirc;&amp;nbsp;1.1.0 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>CVE-2023-30874</t>
+        </is>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-30874</t>
+        </is>
+      </c>
+      <c r="D1299" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1299" t="inlineStr">
+        <is>
+          <t>Auth. (admin+) Stored Cross-Site Scripting (XSS) vulnerability in Steve Curtis, St. Pete Design Gps Plotter plugin &amp;lt;=&amp;Acirc;&amp;nbsp;5.1.4 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1300" t="inlineStr">
+        <is>
+          <t>CVE-2023-30875</t>
+        </is>
+      </c>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-30875</t>
+        </is>
+      </c>
+      <c r="D1300" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1300" t="inlineStr">
+        <is>
+          <t>Auth. (admin+) Stored Cross-Site Scripting (XSS) vulnerability in All My Web Needs Logo Scheduler plugin &amp;lt;=&amp;Acirc;&amp;nbsp;1.2.0 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1301" t="inlineStr">
+        <is>
+          <t>CVE-2023-30876</t>
+        </is>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-30876</t>
+        </is>
+      </c>
+      <c r="D1301" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1301" t="inlineStr">
+        <is>
+          <t>Auth. (admin+) Stored Cross-Site Scripting (XSS) vulnerability in Dave Ross Dave's WordPress Live Search plugin &amp;lt;=&amp;Acirc;&amp;nbsp;4.8.1 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>CVE-2023-30877</t>
+        </is>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-30877</t>
+        </is>
+      </c>
+      <c r="D1302" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1302" t="inlineStr">
+        <is>
+          <t>Unauth. Reflected Cross-Site Scripting (XSS) vulnerability in Maxim Glazunov XML for Google Merchant Center plugin &amp;lt;=&amp;Acirc;&amp;nbsp;3.0.1 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>CVE-2023-31071</t>
+        </is>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-31071</t>
+        </is>
+      </c>
+      <c r="D1303" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1303" t="inlineStr">
+        <is>
+          <t>Unauth. Reflected Cross-Site Scripting (XSS) vulnerability in Yannick Lefebvre Modal Dialog plugin &amp;lt;=&amp;Acirc;&amp;nbsp;3.5.14 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>CVE-2023-31072</t>
+        </is>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-31072</t>
+        </is>
+      </c>
+      <c r="D1304" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1304" t="inlineStr">
+        <is>
+          <t>Unauth. Reflected Cross-Site Scripting (XSS) vulnerability in Praveen Goswami Advanced Category Template plugin &amp;lt;=&amp;Acirc;&amp;nbsp;0.1 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>CVE-2023-31074</t>
+        </is>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-31074</t>
+        </is>
+      </c>
+      <c r="D1305" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1305" t="inlineStr">
+        <is>
+          <t>Unauth. Reflected Cross-Site Scripting (XSS) vulnerability in hupe13 Extensions for Leaflet Map plugin &amp;lt;=&amp;Acirc;&amp;nbsp;3.4.1 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>CVE-2023-31076</t>
+        </is>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-31076</t>
+        </is>
+      </c>
+      <c r="D1306" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1306" t="inlineStr">
+        <is>
+          <t>Unauth. Reflected Cross-Site Scripting (XSS) vulnerability in Really Simple Plugins Recipe Maker For Your Food Blog from Zip Recipes plugin &amp;lt;=&amp;Acirc;&amp;nbsp;8.0.6 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>CVE-2023-31079</t>
+        </is>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-31079</t>
+        </is>
+      </c>
+      <c r="D1307" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1307" t="inlineStr">
+        <is>
+          <t>Auth. (contributor+) Stored Cross-Site Scripting (XSS) vulnerability in Chris Roberts Tippy plugin &amp;lt;=&amp;Acirc;&amp;nbsp;6.2.1 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>CVE-2023-31091</t>
+        </is>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-31091</t>
+        </is>
+      </c>
+      <c r="D1308" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1308" t="inlineStr">
+        <is>
+          <t>Auth. (admin+) Stored Cross-Site Scripting (XSS) vulnerability in Pradeep Singh Dynamically Register Sidebars plugin &amp;lt;=&amp;Acirc;&amp;nbsp;1.0.1 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>CVE-2023-31094</t>
+        </is>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-31094</t>
+        </is>
+      </c>
+      <c r="D1309" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1309" t="inlineStr">
+        <is>
+          <t>Unauth. Reflected Cross-Site Scripting (XSS) vulnerability in Lauri Karisola / WP Trio Stock Sync for WooCommerce plugin &amp;lt;=&amp;Acirc;&amp;nbsp;2.4.0 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>CVE-2023-31218</t>
+        </is>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-31218</t>
+        </is>
+      </c>
+      <c r="D1310" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1310" t="inlineStr">
+        <is>
+          <t>Cross-Site Request Forgery (CSRF) leading to Stored Cross-Site Scripting (XSS) vulnerability in realmag777 WOLF &amp;acirc;&amp;euro;&amp;ldquo; WordPress Posts Bulk Editor and Manager Professional plugin &amp;lt;=&amp;Acirc;&amp;nbsp;1.0.6 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>CVE-2023-31228</t>
+        </is>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-31228</t>
+        </is>
+      </c>
+      <c r="D1311" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1311" t="inlineStr">
+        <is>
+          <t>Auth. (admin+) Stored Cross-Site Scripting (XSS) vulnerability in CreativeMindsSolutions CM On Demand Search And Replace plugin &amp;lt;=&amp;Acirc;&amp;nbsp;1.3.0 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>CVE-2023-31232</t>
+        </is>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-31232</t>
+        </is>
+      </c>
+      <c r="D1312" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1312" t="inlineStr">
+        <is>
+          <t>Auth. (admin+) Stored Cross-Site Scripting (XSS) vulnerability in David Artiss Plugins List plugin &amp;lt;=&amp;Acirc;&amp;nbsp;2.5 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>CVE-2023-31492</t>
+        </is>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-31492</t>
+        </is>
+      </c>
+      <c r="D1313" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1313" t="inlineStr">
+        <is>
+          <t>Incorrect access control in Zoho ManageEngine ADManager Plus Build 7180 allows unauthenticated attackers to view user passwords after executing backup or recovery operations on user accounts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>CVE-2023-31938 (online_travel_agency_system)</t>
+        </is>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-31938</t>
+        </is>
+      </c>
+      <c r="D1314" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1314" t="inlineStr">
+        <is>
+          <t>SQL injection vulnerability found in Online Travel Agency System v.1.0 allows a remote attacker to execute arbitrary code via the emp_id parameter at employee_detail.php.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>CVE-2023-31939 (online_travel_agency_system)</t>
+        </is>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-31939</t>
+        </is>
+      </c>
+      <c r="D1315" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1315" t="inlineStr">
+        <is>
+          <t>SQL injection vulnerability found in Online Travel Agency System v.1.0 allows a remote attacker to execute arbitrary code via the costomer_id parameter at customer_edit.php.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>CVE-2023-31940 (online_travel_agency_system)</t>
+        </is>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-31940</t>
+        </is>
+      </c>
+      <c r="D1316" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1316" t="inlineStr">
+        <is>
+          <t>SQL injection vulnerability found in Online Travel Agency System v.1.0 allows a remote attacker to execute arbitrary code via the page_id parameter at article_edit.php.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>CVE-2023-31941 (online_travel_agency_system)</t>
+        </is>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-31941</t>
+        </is>
+      </c>
+      <c r="D1317" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1317" t="inlineStr">
+        <is>
+          <t>File Upload vulnerability found in Online Travel Agency System v.1.0 allows a remote attacker to execute arbitrary code via a crafted PHP file to the employee_insert.php.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>CVE-2023-31942 (online_travel_agency_system)</t>
+        </is>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-31942</t>
+        </is>
+      </c>
+      <c r="D1318" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1318" t="inlineStr">
+        <is>
+          <t>Cross Site Scripting vulnerability found in Online Travel Agency System v.1.0 allows a remote attacker to execute arbitrary code via the description parameter in insert.php.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>CVE-2023-31943 (online_travel_agency_system)</t>
+        </is>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-31943</t>
+        </is>
+      </c>
+      <c r="D1319" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1319" t="inlineStr">
+        <is>
+          <t>SQL injection vulnerability found in Online Travel Agency System v.1.0 allows a remote attacker to execute arbitrary code via the ticket_id parameter at ticket_detail.php.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>CVE-2023-31944 (online_travel_agency_system)</t>
+        </is>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-31944</t>
+        </is>
+      </c>
+      <c r="D1320" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1320" t="inlineStr">
+        <is>
+          <t>SQL injection vulnerability found in Online Travel Agency System v.1.0 allows a remote attacker to execute arbitrary code via the emp_id parameter at employee_edit.php.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>CVE-2023-31945 (online_travel_agency_system)</t>
+        </is>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-31945</t>
+        </is>
+      </c>
+      <c r="D1321" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1321" t="inlineStr">
+        <is>
+          <t>SQL injection vulnerability found in Online Travel Agency System v.1.0 allows a remote attacker to execute arbitrary code via the id parameter at daily_expenditure_edit.php.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>CVE-2023-31946 (online_travel_agency_system)</t>
+        </is>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-31946</t>
+        </is>
+      </c>
+      <c r="D1322" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1322" t="inlineStr">
+        <is>
+          <t>File Upload vulnerability found in Online Travel Agency System v.1.0 allows a remote attacker to execute arbitrary code via a crafted PHP file to the artical.php.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>CVE-2023-32103</t>
+        </is>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-32103</t>
+        </is>
+      </c>
+      <c r="D1323" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1323" t="inlineStr">
+        <is>
+          <t>Auth. (contributor+) Stored Cross-Site Scripting (XSS) vulnerability in Theme Palace TP Education plugin &amp;lt;=&amp;Acirc;&amp;nbsp;4.4 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>CVE-2023-32105</t>
+        </is>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-32105</t>
+        </is>
+      </c>
+      <c r="D1324" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1324" t="inlineStr">
+        <is>
+          <t>Unauth. Reflected Cross-Site Scripting (XSS) vulnerability in ollybach WPPizza &amp;acirc;&amp;euro;&amp;ldquo; A Restaurant Plugin plugin &amp;lt;=&amp;Acirc;&amp;nbsp;3.17.1 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>CVE-2023-32106</t>
+        </is>
+      </c>
+      <c r="C1325" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-32106</t>
+        </is>
+      </c>
+      <c r="D1325" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1325" t="inlineStr">
+        <is>
+          <t>Unauth. Reflected Cross-Site Scripting (XSS) vulnerability in Fahad Mahmood WP Docs plugin &amp;lt;=&amp;Acirc;&amp;nbsp;1.9.9 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>CVE-2023-32107</t>
+        </is>
+      </c>
+      <c r="C1326" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-32107</t>
+        </is>
+      </c>
+      <c r="D1326" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1326" t="inlineStr">
+        <is>
+          <t>Unauth. Reflected Cross-Site Scripting (XSS) vulnerability in Photo Gallery Team Photo Gallery by Ays &amp;acirc;&amp;euro;&amp;ldquo; Responsive Image Gallery plugin &amp;lt;=&amp;Acirc;&amp;nbsp;5.1.3 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>CVE-2023-32108</t>
+        </is>
+      </c>
+      <c r="C1327" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-32108</t>
+        </is>
+      </c>
+      <c r="D1327" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1327" t="inlineStr">
+        <is>
+          <t>Unauth. Reflected Cross-Site Scripting (XSS) vulnerability in Ignazio Scimone Albo Pretorio On line plugin &amp;lt;=&amp;Acirc;&amp;nbsp;4.6.3 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>CVE-2023-32109</t>
+        </is>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-32109</t>
+        </is>
+      </c>
+      <c r="D1328" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1328" t="inlineStr">
+        <is>
+          <t>Unauth. Reflected Cross-Site Scripting (XSS) vulnerability in Ignazio Scimone Albo Pretorio On line plugin &amp;lt;=&amp;Acirc;&amp;nbsp;4.6.3 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>CVE-2023-32122</t>
+        </is>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-32122</t>
+        </is>
+      </c>
+      <c r="D1329" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1329" t="inlineStr">
+        <is>
+          <t>Unauth. Reflected Cross-Site Scripting (XSS) vulnerability in Spiffy Plugins Spiffy Calendar plugin &amp;lt;=&amp;Acirc;&amp;nbsp;4.9.3 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>CVE-2023-32130</t>
+        </is>
+      </c>
+      <c r="C1330" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-32130</t>
+        </is>
+      </c>
+      <c r="D1330" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1330" t="inlineStr">
+        <is>
+          <t>Auth. (admin+) Stored Cross-Site Scripting (XSS) vulnerability in Daniel Powney Multi Rating plugin &amp;lt;=&amp;Acirc;&amp;nbsp;5.0.6 versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>CVE-2023-3244</t>
+        </is>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-3244</t>
+        </is>
+      </c>
+      <c r="D1331" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1331" t="inlineStr">
+        <is>
+          <t>The Comments Like Dislike plugin for WordPress is vulnerable to unauthorized modification of data due to a missing capability check on the restore_settings function called via an AJAX action in versions up to, and including, 1.1.9. This makes it possible for authenticated attackers with minimal permissions, such as a subscriber, to reset the plugin's settings. NOTE: After attempting to contact the developer with no response, and reporting this to the WordPress plugin's team 30 days ago we are disclosing this issue as it still is not updated.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>CVE-2023-32453</t>
+        </is>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-32453</t>
+        </is>
+      </c>
+      <c r="D1332" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1332" t="inlineStr">
+        <is>
+          <t>Dell BIOS contains an improper authentication vulnerability. A malicious user with physical access to the system may potentially exploit this vulnerability in order to modify a security-critical UEFI variable without knowledge of the BIOS administrator.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>CVE-2023-32486</t>
+        </is>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-32486</t>
+        </is>
+      </c>
+      <c r="D1333" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1333" t="inlineStr">
+        <is>
+          <t>Dell PowerScale OneFS 9.5.x version contain a privilege escalation vulnerability. A low privilege local attacker could potentially exploit this vulnerability, leading to escalation of privileges.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>CVE-2023-32487</t>
+        </is>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-32487</t>
+        </is>
+      </c>
+      <c r="D1334" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1334" t="inlineStr">
+        <is>
+          <t>Dell PowerScale OneFS, 8.2.x - 9.5.0.x, contains an elevation of privilege vulnerability. A low privileged local attacker could potentially exploit this vulnerability, leading to denial of service, code execution and information disclosure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>CVE-2023-32488</t>
+        </is>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-32488</t>
+        </is>
+      </c>
+      <c r="D1335" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1335" t="inlineStr">
+        <is>
+          <t>Dell PowerScale OneFS, 8.2.x-9.5.0.x, contains an information disclosure vulnerability in NFS. A low privileged attacker could potentially exploit this vulnerability, leading to information disclosure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>CVE-2023-32489</t>
+        </is>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-32489</t>
+        </is>
+      </c>
+      <c r="D1336" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1336" t="inlineStr">
+        <is>
+          <t>Dell PowerScale OneFS 8.2x -9.5x contains a privilege escalation vulnerability. A local attacker with high privileges could potentially exploit this vulnerability, to bypass mode protections and gain elevated privileges. &amp;Acirc;&amp;nbsp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>CVE-2023-32490</t>
+        </is>
+      </c>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-32490</t>
+        </is>
+      </c>
+      <c r="D1337" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1337" t="inlineStr">
+        <is>
+          <t>Dell PowerScale OneFS 8.2x -9.5x contains an improper privilege management vulnerability. A high privilege local attacker could potentially exploit this vulnerability, leading to system takeover.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t>CVE-2023-32491</t>
+        </is>
+      </c>
+      <c r="C1338" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-32491</t>
+        </is>
+      </c>
+      <c r="D1338" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1338" t="inlineStr">
+        <is>
+          <t>Dell PowerScale OneFS 9.5.0.x, contains an insertion of sensitive information into log file vulnerability in SNMPv3. A low privileges user could potentially exploit this vulnerability, leading to information disclosure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>CVE-2023-32492</t>
+        </is>
+      </c>
+      <c r="C1339" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-32492</t>
+        </is>
+      </c>
+      <c r="D1339" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1339" t="inlineStr">
+        <is>
+          <t>Dell PowerScale OneFS 9.5.0.x contains an incorrect default permissions vulnerability. A low-privileged local attacker could potentially exploit this vulnerability, leading to information disclosure or allowing to modify files.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>CVE-2023-32493</t>
+        </is>
+      </c>
+      <c r="C1340" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-32493</t>
+        </is>
+      </c>
+      <c r="D1340" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1340" t="inlineStr">
+        <is>
+          <t>Dell PowerScale OneFS, 9.5.0.x, contains a protection mechanism bypass vulnerability. An unprivileged, remote attacker could potentially exploit this vulnerability, leading to denial of service, information disclosure and remote execution.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>CVE-2023-32494</t>
+        </is>
+      </c>
+      <c r="C1341" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-32494</t>
+        </is>
+      </c>
+      <c r="D1341" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1341" t="inlineStr">
+        <is>
+          <t>Dell PowerScale OneFS, 8.0.x-9.5.x, contains an improper handling of insufficient privileges vulnerability. A local  privileged attacker could potentially exploit this vulnerability, leading to elevation of privilege and affect in compliance mode also.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t>CVE-2023-32495</t>
+        </is>
+      </c>
+      <c r="C1342" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-32495</t>
+        </is>
+      </c>
+      <c r="D1342" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1342" t="inlineStr">
+        <is>
+          <t>Dell PowerScale OneFS, 8.2.x-9.5.x, contains a exposure of sensitive information to an unauthorized Actor vulnerability. An authorized local attacker could potentially exploit this vulnerability, leading to escalation of privileges.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>CVE-2023-32626</t>
+        </is>
+      </c>
+      <c r="C1343" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-32626</t>
+        </is>
+      </c>
+      <c r="D1343" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1343" t="inlineStr">
+        <is>
+          <t>Hidden functionality vulnerability in LAN-W300N/RS all versions, and LAN-W300N/PR5 all versions allows an unauthenticated attacker to log in to the product's certain management console and execute arbitrary OS commands.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>CVE-2023-33237</t>
+        </is>
+      </c>
+      <c r="C1344" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-33237</t>
+        </is>
+      </c>
+      <c r="D1344" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1344" t="inlineStr">
+        <is>
+          <t>TN-5900 Series firmware version v3.3 and prior is vulnerable to improper-authentication vulnerability. This vulnerability arises from inadequate authentication measures implemented in the web API handler, allowing low-privileged APIs to execute restricted actions that only high-privileged APIs are allowed This presents a potential risk of unauthorized exploitation by malicious actors.&amp;Acirc;&amp;nbsp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t>CVE-2023-33238</t>
+        </is>
+      </c>
+      <c r="C1345" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-33238</t>
+        </is>
+      </c>
+      <c r="D1345" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1345" t="inlineStr">
+        <is>
+          <t>TN-4900 Series firmware versions v1.2.4 and prior and TN-5900 Series firmware versions v3.3 and prior are vulnerable to the command injection vulnerability. This vulnerability stems from inadequate input validation in the certificate management function, which could potentially allow malicious users to execute remote code on affected devices.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>CVE-2023-33239</t>
+        </is>
+      </c>
+      <c r="C1346" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-33239</t>
+        </is>
+      </c>
+      <c r="D1346" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1346" t="inlineStr">
+        <is>
+          <t>TN-4900 Series firmware versions v1.2.4 and prior and TN-5900 Series firmware versions v3.3 and prior are vulnerable to the command injection vulnerability. This vulnerability stems from insufficient input validation in the key-generation function, which could potentially allow malicious users to execute remote code on affected devices.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1347" t="inlineStr">
+        <is>
+          <t>CVE-2023-33663</t>
+        </is>
+      </c>
+      <c r="C1347" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-33663</t>
+        </is>
+      </c>
+      <c r="D1347" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1347" t="inlineStr">
+        <is>
+          <t>In the module &amp;acirc;&amp;euro;&amp;oelig;Customization fields fee for your store&amp;acirc;&amp;euro;&amp;#65533; (aicustomfee) from ai-dev module for PrestaShop, an attacker can perform SQL injection up to 0.2.0. Release 0.2.1 fixed this security issue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1348" t="inlineStr">
+        <is>
+          <t>CVE-2023-34213</t>
+        </is>
+      </c>
+      <c r="C1348" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-34213</t>
+        </is>
+      </c>
+      <c r="D1348" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1348" t="inlineStr">
+        <is>
+          <t>TN-5900 Series firmware versions v3.3 and prior are vulnerable to command-injection vulnerability. This vulnerability stems from insufficient input validation and improper authentication in the key-generation function, which could potentially allow malicious users to execute remote code on affected devices.&amp;Acirc;&amp;nbsp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1349" t="inlineStr">
+        <is>
+          <t>CVE-2023-34214</t>
+        </is>
+      </c>
+      <c r="C1349" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-34214</t>
+        </is>
+      </c>
+      <c r="D1349" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1349" t="inlineStr">
+        <is>
+          <t>TN-4900 Series firmware versions v1.2.4 and prior and TN-5900 Series firmware versions v3.3 and prior are vulnerable to the command-injection vulnerability. This vulnerability stems from insufficient input validation in the certificate-generation function, which could potentially allow malicious users to execute remote code on affected devices.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1350" t="inlineStr">
+        <is>
+          <t>CVE-2023-34215</t>
+        </is>
+      </c>
+      <c r="C1350" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-34215</t>
+        </is>
+      </c>
+      <c r="D1350" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1350" t="inlineStr">
+        <is>
+          <t>TN-5900 Series firmware versions v3.3 and prior are vulnerable to the command-injection vulnerability. This vulnerability stems from insufficient input validation and improper authentication in the certification-generation function, which could potentially allow malicious users to execute remote code on affected devices.&amp;Acirc;&amp;nbsp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1351" t="inlineStr">
+        <is>
+          <t>CVE-2023-34216</t>
+        </is>
+      </c>
+      <c r="C1351" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-34216</t>
+        </is>
+      </c>
+      <c r="D1351" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1351" t="inlineStr">
+        <is>
+          <t>TN-4900 Series firmware versions v1.2.4 and prior and TN-5900 Series firmware versions v3.3 and prior are vulnerable to the command-injection vulnerability. This vulnerability derives from insufficient input validation in the key-delete function, which could potentially allow malicious users to delete arbitrary files.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1352" t="inlineStr">
+        <is>
+          <t>CVE-2023-34217</t>
+        </is>
+      </c>
+      <c r="C1352" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-34217</t>
+        </is>
+      </c>
+      <c r="D1352" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1352" t="inlineStr">
+        <is>
+          <t>TN-4900 Series firmware versions v1.2.4 and prior and TN-5900 Series firmware versions v3.3 and prior are vulnerable to the command-injection vulnerability. This vulnerability stems from insufficient input validation in the certificate-delete function, which could potentially allow malicious users to delete arbitrary files.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1353" t="inlineStr">
+        <is>
+          <t>CVE-2023-34412</t>
+        </is>
+      </c>
+      <c r="C1353" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-34412</t>
+        </is>
+      </c>
+      <c r="D1353" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1353" t="inlineStr">
+        <is>
+          <t>A vulnerability in Red Lion Europe mbNET/mbNET.rokey and Helmholz REX 200 and REX 250 devices with firmware lower 7.3.2 allows an
+authenticated remote attacker to store an arbitrary JavaScript payload on the diagnosis page of the device.
+That page is loaded immediately after login in to the device and runs the stored payload, allowing the
+attacker to read and write browser data and reduce system performance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1354" t="inlineStr">
+        <is>
+          <t>CVE-2023-34419</t>
+        </is>
+      </c>
+      <c r="C1354" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-34419</t>
+        </is>
+      </c>
+      <c r="D1354" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1354" t="inlineStr">
+        <is>
+          <t>A buffer overflow has been identified in the SetupUtility driver in some Lenovo Notebook products which may allow an attacker with local access and elevated privileges to execute arbitrary code.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1355" t="inlineStr">
+        <is>
+          <t>CVE-2023-35009</t>
+        </is>
+      </c>
+      <c r="C1355" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-35009</t>
+        </is>
+      </c>
+      <c r="D1355" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1355" t="inlineStr">
+        <is>
+          <t>IBM Cognos Analytics 11.1.7, 11.2.0, and 11.2.1 could allow a remote attacker to obtain system information without authentication which could be used in reconnaissance to gather information that could be used for future attacks.  IBM X-Force ID:  257703.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1356" t="inlineStr">
+        <is>
+          <t>CVE-2023-35011</t>
+        </is>
+      </c>
+      <c r="C1356" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-35011</t>
+        </is>
+      </c>
+      <c r="D1356" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1356" t="inlineStr">
+        <is>
+          <t>IBM Cognos Analytics 11.1.7, 11.2.0, and 11.2.1 is vulnerable to server-side request forgery (SSRF). This may allow an authenticated attacker to send unauthorized requests from the system, potentially leading to network enumeration or facilitating other attacks.  IBM X-Force ID:  257705.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1357" t="inlineStr">
+        <is>
+          <t>CVE-2023-35893</t>
+        </is>
+      </c>
+      <c r="C1357" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-35893</t>
+        </is>
+      </c>
+      <c r="D1357" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1357" t="inlineStr">
+        <is>
+          <t>IBM Security Guardium 10.6, 11.3, 11.4, and 11.5 could allow a remote authenticated attacker to execute arbitrary commands on the system by sending a specially crafted request.  IBM X-Force ID:  258824.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1358" t="inlineStr">
+        <is>
+          <t>CVE-2023-35991</t>
+        </is>
+      </c>
+      <c r="C1358" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-35991</t>
+        </is>
+      </c>
+      <c r="D1358" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1358" t="inlineStr">
+        <is>
+          <t>Hidden functionality vulnerability in LOGITEC wireless LAN routers allows an unauthenticated attacker to log in to the product's certain management console and execute arbitrary OS commands. Affected products and versions are as follows: LAN-W300N/DR all versions, LAN-WH300N/DR all versions, LAN-W300N/P all versions, LAN-WH450N/GP all versions, LAN-WH300AN/DGP all versions, LAN-WH300N/DGP all versions, and LAN-WH300ANDGPE all versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1359" t="inlineStr">
+        <is>
+          <t>CVE-2023-36106</t>
+        </is>
+      </c>
+      <c r="C1359" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-36106</t>
+        </is>
+      </c>
+      <c r="D1359" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1359" t="inlineStr">
+        <is>
+          <t>An incorrect access control vulnerability in powerjob 4.3.2 and earlier allows remote attackers to obtain sensitive information via the interface for querying via appId parameter to /container/list.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>CVE-2023-36674</t>
+        </is>
+      </c>
+      <c r="C1360" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-36674</t>
+        </is>
+      </c>
+      <c r="D1360" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="E1360" t="inlineStr">
+        <is>
+          <t>An issue was discovered in MediaWiki before 1.35.11, 1.36.x through 1.38.x before 1.38.7, 1.39.x before 1.39.4, and 1.40.x before 1.40.1. It is possible to bypass the Bad image list (aka badFile) by using the thumb parameter (aka Manualthumb) of the File syntax.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t>CVE-2023-36844</t>
+        </is>
+      </c>
+      <c r="C1361" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-36844</t>
+        </is>
+      </c>
+      <c r="D1361" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1361" t="inlineStr">
+        <is>
+          <t>A PHP External Variable Modification vulnerability in J-Web of Juniper Networks Junos OS on EX Series allows an unauthenticated, network-based attacker to control certain, important environments variables.
+Utilizing a crafted request an attacker is able to modify 
+certain PHP environments variables&amp;Acirc;&amp;nbsp;leading to partial loss of integrity,&amp;Acirc;&amp;nbsp;which may allow chaining to other vulnerabilities.
+This issue affects Juniper Networks Junos OS on EX Series:
+  *  All versions prior to 20.4R3-S9;
+  *  21.2 versions prior to 21.2R3-S6;
+  *  21.3 versions 
+prior to 
+ 21.3R3-S5;
+  *  21.4 versions 
+prior to 
+21.4R3-S5;
+  *  22.1 versions 
+prior to 
+22.1R3-S4;
+  *  22.2 versions 
+prior to 
+22.2R3-S2;
+  *  22.3 versions 
+prior to 22.3R3-S1;
+  *  22.4 versions 
+prior to 
+22.4R2-S2, 22.4R3.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1362" t="inlineStr">
+        <is>
+          <t>CVE-2023-36845</t>
+        </is>
+      </c>
+      <c r="C1362" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-36845</t>
+        </is>
+      </c>
+      <c r="D1362" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1362" t="inlineStr">
+        <is>
+          <t>A PHP External Variable Modification vulnerability in J-Web of Juniper Networks Junos OS on EX Series 
+and SRX Series 
+allows an unauthenticated, network-based attacker to control certain, important environments variables.
+Utilizing a crafted request an attacker is able to modify a certain PHP environment variable leading to partial loss of integrity, which may allow chaining to other vulnerabilities.
+This issue affects Juniper Networks Junos OS on SRX Series:
+  *  All versions prior to 21.4R3-S5;
+  *  22.1 versions 
+prior to 
+22.1R3-S4;
+  *  22.2 versions 
+prior to 
+22.2R3-S2;
+  *  22.3 versions 
+prior to 
+22.3R2-S2, 22.3R3-S1;
+  *  22.4 versions 
+prior to 
+22.4R2-S1, 22.4R3;
+  *  23.2 versions prior to 23.2R1-S1, 23.2R2.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t>CVE-2023-36846</t>
+        </is>
+      </c>
+      <c r="C1363" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-36846</t>
+        </is>
+      </c>
+      <c r="D1363" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1363" t="inlineStr">
+        <is>
+          <t>A Missing Authentication for Critical Function vulnerability in Juniper Networks Junos OS on SRX Series allows an unauthenticated, network-based attacker to cause limited impact to the file system integrity.
+With a specific request that doesn't require authentication an attacker is able to upload arbitrary files via J-Web, leading to a loss of 
+integrity
+for a certain&amp;Acirc;&amp;nbsp;
+part of the&amp;Acirc;&amp;nbsp;file system, which may allow chaining to other vulnerabilities.
+This issue affects Juniper Networks Junos OS on SRX Series:
+  *  All versions prior to 20.4R3-S8;
+  *  21.2 versions prior to 21.2R3-S6;
+  *  21.3 versions 
+prior to 
+ 21.3R3-S5;
+  *  21.4 versions 
+prior to 
+21.4R3-S5;
+  *  22.1 versions 
+prior to 
+22.1R3-S3;
+  *  22.2 versions 
+prior to 
+22.2R3-S2;
+  *  22.3 versions 
+prior to 
+22.3R2-S2, 22.3R3;
+  *  22.4 versions 
+prior to 
+22.4R2-S1, 22.4R3.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1364" t="inlineStr">
+        <is>
+          <t>CVE-2023-36847</t>
+        </is>
+      </c>
+      <c r="C1364" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-36847</t>
+        </is>
+      </c>
+      <c r="D1364" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1364" t="inlineStr">
+        <is>
+          <t>A Missing Authentication for Critical Function vulnerability in Juniper Networks Junos OS on EX Series allows an unauthenticated, network-based attacker to cause limited impact to the file system integrity.
+With a specific request that doesn't require authentication an attacker is able to upload arbitrary files via J-Web, leading to a loss of 
+integrity
+for a certain 
+part of the file system, which may allow chaining to other vulnerabilities.
+This issue affects Juniper Networks Junos OS on EX Series:
+  *  All versions prior to 20.4R3-S8;
+  *  21.2 versions prior to 21.2R3-S6;
+  *  21.3 versions 
+prior to 
+ 21.3R3-S5;
+  *  21.4 versions 
+prior to 
+21.4R3-S4;
+  *  22.1 versions 
+prior to 
+22.1R3-S3;
+  *  22.2 versions 
+prior to 
+22.2R3-S1;
+  *  22.3 versions 
+prior to 
+22.3R2-S2, 22.3R3;
+  *  22.4 versions 
+prior to 
+22.4R2-S1, 22.4R3.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1365" t="inlineStr">
+        <is>
+          <t>CVE-2023-3697</t>
+        </is>
+      </c>
+      <c r="C1365" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-3697</t>
+        </is>
+      </c>
+      <c r="D1365" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1365" t="inlineStr">
+        <is>
+          <t>Printer service fails to adequately handle user input, allowing an remote unauthorized users to navigate beyond the intended directory structure and create files. Affected products and versions include: ADM 4.0.6.RIS1, 4.1.0 and below as well as ADM 4.2.2.RI61 and below.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1366" t="inlineStr">
+        <is>
+          <t>CVE-2023-3698</t>
+        </is>
+      </c>
+      <c r="C1366" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-3698</t>
+        </is>
+      </c>
+      <c r="D1366" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1366" t="inlineStr">
+        <is>
+          <t>Printer service fails to adequately handle user input, allowing an remote unauthorized users to navigate beyond the intended directory structure and delete files. Affected products and versions include: ADM 4.0.6.RIS1, 4.1.0 and below as well as ADM 4.2.2.RI61 and below.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1367" t="inlineStr">
+        <is>
+          <t>CVE-2023-37250</t>
+        </is>
+      </c>
+      <c r="C1367" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-37250</t>
+        </is>
+      </c>
+      <c r="D1367" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="E1367" t="inlineStr">
+        <is>
+          <t>Unity Parsec before 8 has a TOCTOU race condition that permits local attackers to escalate privileges to SYSTEM if Parsec was installed in &amp;quot;Per User&amp;quot; mode. The application intentionally launches DLLs from a user-owned directory but intended to always perform integrity verification of those DLLs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1368" t="inlineStr">
+        <is>
+          <t>CVE-2023-37369</t>
+        </is>
+      </c>
+      <c r="C1368" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-37369</t>
+        </is>
+      </c>
+      <c r="D1368" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="E1368" t="inlineStr">
+        <is>
+          <t>In Qt before 5.15.15, 6.x before 6.2.9, and 6.3.x through 6.5.x before 6.5.2, there can be an application crash in QXmlStreamReader via a crafted XML string that triggers a situation in which a prefix is greater than a length.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t>CVE-2023-37914</t>
+        </is>
+      </c>
+      <c r="C1369" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-37914</t>
+        </is>
+      </c>
+      <c r="D1369" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1369" t="inlineStr">
+        <is>
+          <t>XWiki Platform is a generic wiki platform offering runtime services for applications built on top of it. Any user who can view `Invitation.WebHome` can execute arbitrary script macros including Groovy and Python macros that allow remote code execution including unrestricted read and write access to all wiki contents. This vulnerability has been patched on XWiki 14.4.8, 15.2-rc-1, and 14.10.6. Users are advised to upgrade. Users unable to upgrade may manually apply the patch on `Invitation.InvitationCommon` and `Invitation.InvitationConfig`, but there are otherwise no known workarounds for this vulnerability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1370" t="inlineStr">
+        <is>
+          <t>CVE-2023-38132</t>
+        </is>
+      </c>
+      <c r="C1370" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-38132</t>
+        </is>
+      </c>
+      <c r="D1370" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1370" t="inlineStr">
+        <is>
+          <t>LAN-W451NGR all versions provided by LOGITEC CORPORATION contains an improper access control vulnerability, which allows an unauthenticated attacker to log in to telnet service.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>CVE-2023-38576</t>
+        </is>
+      </c>
+      <c r="C1371" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-38576</t>
+        </is>
+      </c>
+      <c r="D1371" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1371" t="inlineStr">
+        <is>
+          <t>Hidden functionality vulnerability in LAN-WH300N/RE all versions provided by LOGITEC CORPORATION allows an authenticated user to execute arbitrary OS commands on a certain management console.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t>CVE-2023-38737</t>
+        </is>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-38737</t>
+        </is>
+      </c>
+      <c r="D1372" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1372" t="inlineStr">
+        <is>
+          <t>IBM WebSphere Application Server Liberty 22.0.0.13 through 23.0.0.7 is vulnerable to a denial of service, caused by sending a specially-crafted request. A remote attacker could exploit this vulnerability to cause the server to consume memory resources.  IBM X-Force ID:  262567.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1373" t="inlineStr">
+        <is>
+          <t>CVE-2023-38838</t>
+        </is>
+      </c>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-38838</t>
+        </is>
+      </c>
+      <c r="D1373" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1373" t="inlineStr">
+        <is>
+          <t>SQL injection vulnerability in Kidus Minimati v.1.0.0 allows a remote attacker to obtain sensitive information via the edit.php component.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1374" t="inlineStr">
+        <is>
+          <t>CVE-2023-38839</t>
+        </is>
+      </c>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-38839</t>
+        </is>
+      </c>
+      <c r="D1374" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1374" t="inlineStr">
+        <is>
+          <t>SQL injection vulnerability in Kidus Minimati v.1.0.0 allows a remote attacker to obtain sensitive information via theID parameter in the fulldelete.php component.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1375" t="inlineStr">
+        <is>
+          <t>CVE-2023-38840</t>
+        </is>
+      </c>
+      <c r="C1375" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-38840</t>
+        </is>
+      </c>
+      <c r="D1375" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E1375" t="inlineStr">
+        <is>
+          <t>Bitwarden Windows Desktop v2023.5.1 and below allows an attacker with local access to obtain sensitive information via the Bitwarden.exe process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1376" t="inlineStr">
+        <is>
+          <t>CVE-2023-38843</t>
+        </is>
+      </c>
+      <c r="C1376" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-38843</t>
+        </is>
+      </c>
+      <c r="D1376" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1376" t="inlineStr">
+        <is>
+          <t>An issue in Atlos v.1.0 allows an authenticated attacker to execute arbitrary code via a crafted payload into the description field in the incident function.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1377" t="inlineStr">
+        <is>
+          <t>CVE-2023-38851 (libxls)</t>
+        </is>
+      </c>
+      <c r="C1377" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-38851</t>
+        </is>
+      </c>
+      <c r="D1377" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E1377" t="inlineStr">
+        <is>
+          <t>Buffer Overflow vulnerability in libxlsv.1.6.2 allows a remote attacker to execute arbitrary code and cause a denial of service via a crafted XLS file to the xls_parseWorkBook function in xls.c:1018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1378" t="inlineStr">
+        <is>
+          <t>CVE-2023-38852 (libxls)</t>
+        </is>
+      </c>
+      <c r="C1378" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-38852</t>
+        </is>
+      </c>
+      <c r="D1378" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E1378" t="inlineStr">
+        <is>
+          <t>Buffer Overflow vulnerability in libxlsv.1.6.2 allows a remote attacker to execute arbitrary code and cause a denial of service via a crafted XLS file to the unicode_decode_wcstombs function in xlstool.c:266.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1379" t="inlineStr">
+        <is>
+          <t>CVE-2023-38853 (libxls)</t>
+        </is>
+      </c>
+      <c r="C1379" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-38853</t>
+        </is>
+      </c>
+      <c r="D1379" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E1379" t="inlineStr">
+        <is>
+          <t>Buffer Overflow vulnerability in libxlsv.1.6.2 allows a remote attacker to execute arbitrary code and cause a denial of service via a crafted XLS file to the xls_parseWorkBook function in xls.c:1015.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1380" t="inlineStr">
+        <is>
+          <t>CVE-2023-38854 (libxls)</t>
+        </is>
+      </c>
+      <c r="C1380" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-38854</t>
+        </is>
+      </c>
+      <c r="D1380" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E1380" t="inlineStr">
+        <is>
+          <t>Buffer Overflow vulnerability in libxlsv.1.6.2 allows a remote attacker to execute arbitrary code and cause a denial of service via a crafted XLS file to the transcode_latin1_to_utf8 function in xlstool.c:296.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1381" t="inlineStr">
+        <is>
+          <t>CVE-2023-38855 (libxls)</t>
+        </is>
+      </c>
+      <c r="C1381" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-38855</t>
+        </is>
+      </c>
+      <c r="D1381" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E1381" t="inlineStr">
+        <is>
+          <t>Buffer Overflow vulnerability in libxlsv.1.6.2 allows a remote attacker to execute arbitrary code and cause a denial of service via a crafted XLS file to the get_string function in xlstool.c:395.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1382" t="inlineStr">
+        <is>
+          <t>CVE-2023-38856 (libxls)</t>
+        </is>
+      </c>
+      <c r="C1382" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-38856</t>
+        </is>
+      </c>
+      <c r="D1382" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E1382" t="inlineStr">
+        <is>
+          <t>Buffer Overflow vulnerability in libxlsv.1.6.2 allows a remote attacker to execute arbitrary code and cause a denial of service via a crafted XLS file to the get_string function in xlstool.c:411.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1383" t="inlineStr">
+        <is>
+          <t>CVE-2023-38857 (faad2)</t>
+        </is>
+      </c>
+      <c r="C1383" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-38857</t>
+        </is>
+      </c>
+      <c r="D1383" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E1383" t="inlineStr">
+        <is>
+          <t>Buffer Overflow vulnerability infaad2 v.2.10.1 allows a remote attacker to execute arbitrary code and cause a denial of service via the stcoin function in mp4read.c.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1384" t="inlineStr">
+        <is>
+          <t>CVE-2023-38858 (faad2)</t>
+        </is>
+      </c>
+      <c r="C1384" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-38858</t>
+        </is>
+      </c>
+      <c r="D1384" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E1384" t="inlineStr">
+        <is>
+          <t>Buffer Overflow vulnerability infaad2 v.2.10.1 allows a remote attacker to execute arbitrary code and cause a denial of service via the mp4info function in mp4read.c:1039.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1385" t="inlineStr">
+        <is>
+          <t>CVE-2023-38890</t>
+        </is>
+      </c>
+      <c r="C1385" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-38890</t>
+        </is>
+      </c>
+      <c r="D1385" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1385" t="inlineStr">
+        <is>
+          <t>Online Shopping Portal Project 3.1 allows remote attackers to execute arbitrary SQL commands/queries via the login form, leading to unauthorized access and potential data manipulation. This vulnerability arises due to insufficient validation of user-supplied input in the username field, enabling SQL Injection attacks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1386" t="inlineStr">
+        <is>
+          <t>CVE-2023-38894</t>
+        </is>
+      </c>
+      <c r="C1386" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-38894</t>
+        </is>
+      </c>
+      <c r="D1386" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1386" t="inlineStr">
+        <is>
+          <t>A Prototype Pollution issue in Cronvel Tree-kit v.0.7.4 and before allows a remote attacker to execute arbitrary code via the extend function.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1387" t="inlineStr">
+        <is>
+          <t>CVE-2023-38902</t>
+        </is>
+      </c>
+      <c r="C1387" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-38902</t>
+        </is>
+      </c>
+      <c r="D1387" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1387" t="inlineStr">
+        <is>
+          <t>A command injection vulnerability in RG-EW series home routers and repeaters v.EW_3.0(1)B11P219, RG-NBS and RG-S1930 series switches v.SWITCH_3.0(1)B11P219, RG-EG series business VPN routers v.EG_3.0(1)B11P219, EAP and RAP series wireless access points v.AP_3.0(1)B11P219, and NBC series wireless controllers v.AC_3.0(1)B11P219 allows an authorized attacker to execute arbitrary commands on remote devices by sending a POST request to /cgi-bin/luci/api/cmd via the remoteIp field.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1388" t="inlineStr">
+        <is>
+          <t>CVE-2023-38904</t>
+        </is>
+      </c>
+      <c r="C1388" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-38904</t>
+        </is>
+      </c>
+      <c r="D1388" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1388" t="inlineStr">
+        <is>
+          <t>A Cross Site Scripting (XSS) vulnerability in Netlify CMS v.2.10.192 allows a remote attacker to execute arbitrary code via a crafted payload to the body parameter of the new post function.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1389" t="inlineStr">
+        <is>
+          <t>CVE-2023-38905</t>
+        </is>
+      </c>
+      <c r="C1389" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-38905</t>
+        </is>
+      </c>
+      <c r="D1389" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1389" t="inlineStr">
+        <is>
+          <t>SQL injection vulnerability in Jeecg-boot v.3.5.0 and before allows a local attacker to cause a denial of service via the Benchmark, PG_Sleep, DBMS_Lock.Sleep, Waitfor, DECODE, and DBMS_PIPE.RECEIVE_MESSAGE functions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1390" t="inlineStr">
+        <is>
+          <t>CVE-2023-38910</t>
+        </is>
+      </c>
+      <c r="C1390" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-38910</t>
+        </is>
+      </c>
+      <c r="D1390" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1390" t="inlineStr">
+        <is>
+          <t>CSZ CMS 1.3.0 is vulnerable to cross-site scripting (XSS), which allows attackers to execute arbitrary web scripts or HTML via a crafted payload entered in the 'Carousel Wiget' section and choosing our carousel widget created above, in 'Photo URL' and 'YouTube URL' plugin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1391" t="inlineStr">
+        <is>
+          <t>CVE-2023-38911</t>
+        </is>
+      </c>
+      <c r="C1391" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-38911</t>
+        </is>
+      </c>
+      <c r="D1391" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1391" t="inlineStr">
+        <is>
+          <t>A Cross-Site Scripting (XSS) vulnerability in CSZ CMS 1.3.0 allows attackers to execute arbitrary code via a crafted payload to the Gallery parameter in the YouTube URL fields.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1392" t="inlineStr">
+        <is>
+          <t>CVE-2023-39115</t>
+        </is>
+      </c>
+      <c r="C1392" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39115</t>
+        </is>
+      </c>
+      <c r="D1392" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1392" t="inlineStr">
+        <is>
+          <t>install/aiz-uploader/upload in Campcodes Online Matrimonial Website System Script 3.3 allows XSS via a crafted SVG document.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1393" t="inlineStr">
+        <is>
+          <t>CVE-2023-39125</t>
+        </is>
+      </c>
+      <c r="C1393" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39125</t>
+        </is>
+      </c>
+      <c r="D1393" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1393" t="inlineStr">
+        <is>
+          <t>NTSC-CRT 2.2.1 has an integer overflow and out-of-bounds write in loadBMP in bmp_rw.c because a file's width, height, and BPP are not validated. NOTE: the vendor's perspective is &amp;quot;this main application was not intended to be a well tested program, it's just something to demonstrate it works and for the user to see how to integrate it into their own programs.&amp;quot;</t>
+        </is>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1394" t="inlineStr">
+        <is>
+          <t>CVE-2023-39250</t>
+        </is>
+      </c>
+      <c r="C1394" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39250</t>
+        </is>
+      </c>
+      <c r="D1394" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1394" t="inlineStr">
+        <is>
+          <t>Dell Storage Integration Tools for VMware (DSITV) 06.01.00.016 contain an information disclosure vulnerability. A local low-privileged malicious user could potentially exploit this vulnerability to retrieve an encryption key that could aid in further attacks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1395" t="inlineStr">
+        <is>
+          <t>CVE-2023-39415</t>
+        </is>
+      </c>
+      <c r="C1395" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39415</t>
+        </is>
+      </c>
+      <c r="D1395" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1395" t="inlineStr">
+        <is>
+          <t>Improper authentication vulnerability in Proself Enterprise/Standard Edition Ver5.61 and earlier, Proself Gateway Edition Ver1.62 and earlier, and Proself Mail Sanitize Edition Ver1.07 and earlier allow a remote unauthenticated attacker to log in to the product's Control Panel and perform an unintended operation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1396" t="inlineStr">
+        <is>
+          <t>CVE-2023-39416</t>
+        </is>
+      </c>
+      <c r="C1396" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39416</t>
+        </is>
+      </c>
+      <c r="D1396" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1396" t="inlineStr">
+        <is>
+          <t>Proself Enterprise/Standard Edition Ver5.61 and earlier, Proself Gateway Edition Ver1.62 and earlier, and Proself Mail Sanitize Edition Ver1.07 and earlier allow a remote authenticated attacker with an administrative privilege to execute arbitrary OS commands.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1397" t="inlineStr">
+        <is>
+          <t>CVE-2023-39445</t>
+        </is>
+      </c>
+      <c r="C1397" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39445</t>
+        </is>
+      </c>
+      <c r="D1397" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1397" t="inlineStr">
+        <is>
+          <t>Hidden functionality vulnerability in LAN-WH300N/RE all versions provided by LOGITEC CORPORATION allows an unauthenticated attacker to execute arbitrary code by sending a specially crafted file to the product's certain management console.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1398" t="inlineStr">
+        <is>
+          <t>CVE-2023-39454</t>
+        </is>
+      </c>
+      <c r="C1398" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39454</t>
+        </is>
+      </c>
+      <c r="D1398" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1398" t="inlineStr">
+        <is>
+          <t>Buffer overflow vulnerability in WRC-X1800GS-B v1.13 and earlier, WRC-X1800GSA-B v1.13 and earlier, and WRC-X1800GSH-B v1.13 and earlier allows an unauthenticated attacker to execute arbitrary code.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1399" t="inlineStr">
+        <is>
+          <t>CVE-2023-39455</t>
+        </is>
+      </c>
+      <c r="C1399" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39455</t>
+        </is>
+      </c>
+      <c r="D1399" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1399" t="inlineStr">
+        <is>
+          <t>OS command injection vulnerability in ELECOM wireless LAN routers allows an authenticated user to execute an arbitrary OS command by sending a specially crafted request. Affected products and versions are as follows: WRC-600GHBK-A all versions, WRC-1467GHBK-A all versions, WRC-1900GHBK-A all versions, WRC-733FEBK2-A all versions, WRC-F1167ACF2 all versions, WRC-1467GHBK-S all versions, and WRC-1900GHBK-S all versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t>CVE-2023-39507</t>
+        </is>
+      </c>
+      <c r="C1400" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39507</t>
+        </is>
+      </c>
+      <c r="D1400" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1400" t="inlineStr">
+        <is>
+          <t>Improper authorization in the custom URL scheme handler in &amp;quot;Rikunabi NEXT&amp;quot; App for Android prior to ver. 11.5.0 allows a malicious intent to lead the vulnerable App to access an arbitrary website.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>CVE-2023-3958</t>
+        </is>
+      </c>
+      <c r="C1401" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-3958</t>
+        </is>
+      </c>
+      <c r="D1401" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1401" t="inlineStr">
+        <is>
+          <t>The WP Remote Users Sync plugin for WordPress is vulnerable to Server Side Request Forgery via the 'notify_ping_remote' AJAX function in versions up to, and including, 1.2.12. This can allow authenticated attackers with subscriber-level permissions or above to make web requests to arbitrary locations originating from the web application and can be used to query and modify information from internal services. This was partially patched in version 1.2.12 and fully patched in version 1.2.13.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1402" t="inlineStr">
+        <is>
+          <t>CVE-2023-39665</t>
+        </is>
+      </c>
+      <c r="C1402" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39665</t>
+        </is>
+      </c>
+      <c r="D1402" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1402" t="inlineStr">
+        <is>
+          <t>** UNSUPPORTED WHEN ASSIGNED ** D-Link DIR-868L fw_revA_1-12_eu_multi_20170316 was discovered to contain a buffer overflow via the acStack_50 parameter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1403" t="inlineStr">
+        <is>
+          <t>CVE-2023-39666</t>
+        </is>
+      </c>
+      <c r="C1403" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39666</t>
+        </is>
+      </c>
+      <c r="D1403" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1403" t="inlineStr">
+        <is>
+          <t>D-Link DIR-842 fw_revA_1-02_eu_multi_20151008 was discovered to contain multiple buffer overflows in the fgets function via the acStack_120 and acStack_220 parameters.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1404" t="inlineStr">
+        <is>
+          <t>CVE-2023-39667</t>
+        </is>
+      </c>
+      <c r="C1404" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39667</t>
+        </is>
+      </c>
+      <c r="D1404" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1404" t="inlineStr">
+        <is>
+          <t>** UNSUPPORTED WHEN ASSIGNED ** D-Link DIR-868L fw_revA_1-12_eu_multi_20170316 was discovered to contain a buffer overflow via the param_2 parameter in the FUN_0000acb4 function.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1405" t="inlineStr">
+        <is>
+          <t>CVE-2023-39668</t>
+        </is>
+      </c>
+      <c r="C1405" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39668</t>
+        </is>
+      </c>
+      <c r="D1405" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1405" t="inlineStr">
+        <is>
+          <t>** UNSUPPORTED WHEN ASSIGNED ** D-Link DIR-868L fw_revA_1-12_eu_multi_20170316 was discovered to contain a buffer overflow via the param_2 parameter in the inet_ntoa() function.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1406" t="inlineStr">
+        <is>
+          <t>CVE-2023-39669</t>
+        </is>
+      </c>
+      <c r="C1406" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39669</t>
+        </is>
+      </c>
+      <c r="D1406" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1406" t="inlineStr">
+        <is>
+          <t>D-Link DIR-880 A1_FW107WWb08 was discovered to contain a NULL pointer dereference in the function FUN_00010824.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1407" t="inlineStr">
+        <is>
+          <t>CVE-2023-39670</t>
+        </is>
+      </c>
+      <c r="C1407" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39670</t>
+        </is>
+      </c>
+      <c r="D1407" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1407" t="inlineStr">
+        <is>
+          <t>Tenda AC6 _US_AC6V1.0BR_V15.03.05.16 was discovered to contain a buffer overflow via the function fgets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1408" t="inlineStr">
+        <is>
+          <t>CVE-2023-39671</t>
+        </is>
+      </c>
+      <c r="C1408" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39671</t>
+        </is>
+      </c>
+      <c r="D1408" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1408" t="inlineStr">
+        <is>
+          <t>D-Link DIR-880 A1_FW107WWb08 was discovered to contain a buffer overflow via the function FUN_0001be68.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1409" t="inlineStr">
+        <is>
+          <t>CVE-2023-39672</t>
+        </is>
+      </c>
+      <c r="C1409" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39672</t>
+        </is>
+      </c>
+      <c r="D1409" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1409" t="inlineStr">
+        <is>
+          <t>Tenda WH450 v1.0.0.18 was discovered to contain a buffer overflow via the function fgets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1410" t="inlineStr">
+        <is>
+          <t>CVE-2023-39673</t>
+        </is>
+      </c>
+      <c r="C1410" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39673</t>
+        </is>
+      </c>
+      <c r="D1410" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1410" t="inlineStr">
+        <is>
+          <t>Tenda AC15 V1.0BR_V15.03.05.18_multi_TD01 was discovered to contain a buffer overflow via the function FUN_00010e34().</t>
+        </is>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1411" t="inlineStr">
+        <is>
+          <t>CVE-2023-39674</t>
+        </is>
+      </c>
+      <c r="C1411" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39674</t>
+        </is>
+      </c>
+      <c r="D1411" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1411" t="inlineStr">
+        <is>
+          <t>D-Link DIR-880 A1_FW107WWb08 was discovered to contain a buffer overflow via the function fgets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1412" t="inlineStr">
+        <is>
+          <t>CVE-2023-39741</t>
+        </is>
+      </c>
+      <c r="C1412" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39741</t>
+        </is>
+      </c>
+      <c r="D1412" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1412" t="inlineStr">
+        <is>
+          <t>lrzip v0.651 was discovered to contain a heap overflow via the libzpaq::PostProcessor::write(int) function at /libzpaq/libzpaq.cpp. This vulnerability allows attackers to cause a Denial of Service (DoS) via a crafted file.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1413" t="inlineStr">
+        <is>
+          <t>CVE-2023-39743</t>
+        </is>
+      </c>
+      <c r="C1413" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39743</t>
+        </is>
+      </c>
+      <c r="D1413" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1413" t="inlineStr">
+        <is>
+          <t>lrzip-next LZMA v23.01 was discovered to contain an access violation via the component /bz3_decode_block src/libbz3.c.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1414" t="inlineStr">
+        <is>
+          <t>CVE-2023-39846</t>
+        </is>
+      </c>
+      <c r="C1414" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39846</t>
+        </is>
+      </c>
+      <c r="D1414" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1414" t="inlineStr">
+        <is>
+          <t>An issue in Konga v0.14.9 allows attackers to bypass authentication via a crafted JWT token.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1415" t="inlineStr">
+        <is>
+          <t>CVE-2023-39848</t>
+        </is>
+      </c>
+      <c r="C1415" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39848</t>
+        </is>
+      </c>
+      <c r="D1415" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E1415" t="inlineStr">
+        <is>
+          <t>** REJECT ** DO NOT USE THIS CANDIDATE NUMBER. ConsultIDs: none. Reason: This candidate was withdrawn by its CNA. Further investigation showed that it was not a security issue. Notes: none.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1416" t="inlineStr">
+        <is>
+          <t>CVE-2023-39849</t>
+        </is>
+      </c>
+      <c r="C1416" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39849</t>
+        </is>
+      </c>
+      <c r="D1416" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E1416" t="inlineStr">
+        <is>
+          <t>** REJECT ** DO NOT USE THIS CANDIDATE NUMBER. ConsultIDs: none. Reason: This candidate was withdrawn by its CNA. Further investigation showed that it was not a security issue. Notes: none.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1417" t="inlineStr">
+        <is>
+          <t>CVE-2023-39850 (schoolmate)</t>
+        </is>
+      </c>
+      <c r="C1417" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39850</t>
+        </is>
+      </c>
+      <c r="D1417" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E1417" t="inlineStr">
+        <is>
+          <t>Schoolmate v1.3 was discovered to contain multiple SQL injection vulnerabilities via the $courseid and $teacherid parameters at DeleteFunctions.php.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1418" t="inlineStr">
+        <is>
+          <t>CVE-2023-39851 (webchess)</t>
+        </is>
+      </c>
+      <c r="C1418" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39851</t>
+        </is>
+      </c>
+      <c r="D1418" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E1418" t="inlineStr">
+        <is>
+          <t>webchess v1.0 was discovered to contain a SQL injection vulnerability via the $playerID parameter at mainmenu.php.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1419" t="inlineStr">
+        <is>
+          <t>CVE-2023-39944</t>
+        </is>
+      </c>
+      <c r="C1419" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39944</t>
+        </is>
+      </c>
+      <c r="D1419" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1419" t="inlineStr">
+        <is>
+          <t>OS command injection vulnerability in WRC-F1167ACF all versions, and WRC-1750GHBK all versions allows an attacker who can access the product to execute an arbitrary OS command by sending a specially crafted request.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1420" t="inlineStr">
+        <is>
+          <t>CVE-2023-39970</t>
+        </is>
+      </c>
+      <c r="C1420" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39970</t>
+        </is>
+      </c>
+      <c r="D1420" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1420" t="inlineStr">
+        <is>
+          <t>Unrestricted Upload of File with Dangerous Type vulnerability in AcyMailing component for Joomla. It allows remote code execution.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1421" t="inlineStr">
+        <is>
+          <t>CVE-2023-39971</t>
+        </is>
+      </c>
+      <c r="C1421" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39971</t>
+        </is>
+      </c>
+      <c r="D1421" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1421" t="inlineStr">
+        <is>
+          <t>Improper Neutralization of Input During Web Page Generation vulnerability in AcyMailing Enterprise component for Joomla allows XSS. This issue affects AcyMailing Enterprise component for Joomla: 6.7.0-8.6.3.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1422" t="inlineStr">
+        <is>
+          <t>CVE-2023-39972</t>
+        </is>
+      </c>
+      <c r="C1422" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39972</t>
+        </is>
+      </c>
+      <c r="D1422" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1422" t="inlineStr">
+        <is>
+          <t>Improper Access Control vulnerability in AcyMailing Enterprise component for Joomla. It allows unauthorized users to create new mailing lists.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1423" t="inlineStr">
+        <is>
+          <t>CVE-2023-39973</t>
+        </is>
+      </c>
+      <c r="C1423" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39973</t>
+        </is>
+      </c>
+      <c r="D1423" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1423" t="inlineStr">
+        <is>
+          <t>Improper Access Control vulnerability in AcyMailing Enterprise component for Joomla. It allows the unauthorized removal of attachments from campaigns.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1424" t="inlineStr">
+        <is>
+          <t>CVE-2023-39974</t>
+        </is>
+      </c>
+      <c r="C1424" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39974</t>
+        </is>
+      </c>
+      <c r="D1424" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1424" t="inlineStr">
+        <is>
+          <t>Exposure of Sensitive Information vulnerability in AcyMailing Enterprise component for Joomla. It allows unauthorized actors to get the number of subscribers in a specific list.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1425" t="inlineStr">
+        <is>
+          <t>CVE-2023-39975</t>
+        </is>
+      </c>
+      <c r="C1425" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39975</t>
+        </is>
+      </c>
+      <c r="D1425" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1425" t="inlineStr">
+        <is>
+          <t>kdc/do_tgs_req.c in MIT Kerberos 5 (aka krb5) 1.21 before 1.21.2 has a double free that is reachable if an authenticated user can trigger an authorization-data handling failure. Incorrect data is copied from one ticket to another.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1426" t="inlineStr">
+        <is>
+          <t>CVE-2023-40021</t>
+        </is>
+      </c>
+      <c r="C1426" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40021</t>
+        </is>
+      </c>
+      <c r="D1426" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1426" t="inlineStr">
+        <is>
+          <t>Oppia is an online learning platform. When comparing a received CSRF token against the expected token, Oppia uses the string equality operator (`==`), which is not safe against timing attacks. By repeatedly submitting invalid tokens, an attacker can brute-force the expected CSRF token character by character. Once they have recovered the token, they can then submit a forged request on behalf of a logged-in user and execute privileged actions on that user's behalf. In particular the function to validate received CSRF tokens is at `oppia.core.controllers.base.CsrfTokenManager.is_csrf_token_valid`. An attacker who can lure a logged-in Oppia user to a malicious website can perform any change on Oppia that the user is authorized to do, including changing profile information; creating, deleting, and changing explorations; etc. Note that the attacker cannot change a user's login credentials. An attack would need to complete within 1 second because every second, the time used in computing the token changes. This issue has been addressed in commit `b89bf80837` which has been included in release `3.3.2-hotfix-2`. Users are advised to upgrade. There are no known workarounds for this vulnerability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1427" t="inlineStr">
+        <is>
+          <t>CVE-2023-40033</t>
+        </is>
+      </c>
+      <c r="C1427" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40033</t>
+        </is>
+      </c>
+      <c r="D1427" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1427" t="inlineStr">
+        <is>
+          <t>Flarum is an open source forum software. Flarum is affected by a vulnerability that allows an attacker to conduct a Blind Server-Side Request Forgery (SSRF) attack or disclose any file on the server, even with a basic user account on any Flarum forum. By uploading a file containing a URL and spoofing the MIME type, an attacker can manipulate the application to execute unintended actions. The vulnerability is due to the behavior of the `intervention/image` package, which attempts to interpret the supplied file contents as a URL, which then fetches its contents. This allows an attacker to exploit the vulnerability to perform SSRF attacks, disclose local file contents, or conduct a blind oracle attack. This has been patched in Flarum version 1.8.0. Users are advised to upgrade. Users unable to upgrade may disable PHP's `allow_url_fopen` which will prevent the fetching of external files via URLs as a temporary workaround for the SSRF aspect of the vulnerability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1428" t="inlineStr">
+        <is>
+          <t>CVE-2023-40034</t>
+        </is>
+      </c>
+      <c r="C1428" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40034</t>
+        </is>
+      </c>
+      <c r="D1428" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1428" t="inlineStr">
+        <is>
+          <t>Woodpecker is a community fork of the Drone CI system. In affected versions an attacker can post malformed webhook data witch lead to an update of the repository data that can e.g. allow the takeover of an repo. This is only critical if the CI is configured for public usage and connected to a forge witch is also in public usage. This issue has been addressed in version 1.0.2. Users are advised to upgrade. Users unable to upgrade should secure the CI system by making it inaccessible to untrusted entities, for example, by placing it behind a firewall.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1429" t="inlineStr">
+        <is>
+          <t>CVE-2023-40037</t>
+        </is>
+      </c>
+      <c r="C1429" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40037</t>
+        </is>
+      </c>
+      <c r="D1429" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1429" t="inlineStr">
+        <is>
+          <t>Apache NiFi 1.21.0 through 1.23.0 support JDBC and JNDI JMS access in several Processors and Controller Services with connection URL validation that does not provide sufficient protection against crafted inputs. An authenticated and authorized user can bypass connection URL validation using custom input formatting. The resolution enhances connection URL validation and introduces validation for additional related properties. Upgrading to Apache NiFi 1.23.1 is the recommended mitigation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1430" t="inlineStr">
+        <is>
+          <t>CVE-2023-40069</t>
+        </is>
+      </c>
+      <c r="C1430" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40069</t>
+        </is>
+      </c>
+      <c r="D1430" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1430" t="inlineStr">
+        <is>
+          <t>OS command injection vulnerability in ELECOM wireless LAN routers allows an attacker who can access the product to execute an arbitrary OS command by sending a specially crafted request. Affected products and versions are as follows: WRC-F1167ACF all versions, WRC-1750GHBK all versions, WRC-1167GHBK2 all versions, WRC-1750GHBK2-I all versions, and WRC-1750GHBK-E all versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1431" t="inlineStr">
+        <is>
+          <t>CVE-2023-40072</t>
+        </is>
+      </c>
+      <c r="C1431" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40072</t>
+        </is>
+      </c>
+      <c r="D1431" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1431" t="inlineStr">
+        <is>
+          <t>OS command injection vulnerability in WAB-S600-PS all versions, and WAB-S300 all versions allows an authenticated user to execute an arbitrary OS command by sending a specially crafted request.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1432" t="inlineStr">
+        <is>
+          <t>CVE-2023-40165</t>
+        </is>
+      </c>
+      <c r="C1432" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40165</t>
+        </is>
+      </c>
+      <c r="D1432" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1432" t="inlineStr">
+        <is>
+          <t>rubygems.org is the Ruby community's primary gem (library) hosting service. Insufficient input validation allowed malicious actors to replace any uploaded gem version that had a platform, version number, or gem name matching `/-\d/`, permanently replacing the legitimate upload in the canonical gem storage bucket, and triggering an immediate CDN purge so that the malicious gem would be served immediately. The maintainers have checked all gems matching the `/-\d/` pattern and can confirm that no unexpected `.gem`s were found. As a result, we believe this vulnerability was _not_ exploited. The easiest way to ensure that a user's applications were not exploited by this vulnerability is to check that all of your downloaded .gems have a checksum that matches the checksum recorded in the RubyGems.org database. RubyGems contributor Maciej Mensfeld wrote a tool to automatically check that all downloaded .gem files match the checksums recorded in the RubyGems.org database. You can use it by running: `bundle add bundler-integrity` followed by `bundle exec bundler-integrity`. Neither this tool nor anything else can prove you were not exploited, but the can assist your investigation by quickly comparing RubyGems API-provided checksums with the checksums of files on your disk. The issue has been patched with improved input validation and the changes are live. No action is required on the part of the user. Users are advised to validate their local gems.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t>CVE-2023-40168</t>
+        </is>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40168</t>
+        </is>
+      </c>
+      <c r="D1433" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1433" t="inlineStr">
+        <is>
+          <t>TurboWarp is a desktop application that compiles scratch projects to JavaScript. TurboWarp Desktop versions prior to version 1.8.0 allowed a malicious project or custom extension to read arbitrary files from disk and upload them to a remote server. The only required user interaction is opening the sb3 file or loading the extension. The web version of TurboWarp is not affected. This bug has been addressed in commit `55e07e99b59` after an initial fix which was reverted. Users are advised to upgrade to version 1.8.0 or later. Users unable to upgrade should avoid opening sb3 files or loading extensions from untrusted sources.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1434" t="inlineStr">
+        <is>
+          <t>CVE-2023-40171</t>
+        </is>
+      </c>
+      <c r="C1434" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40171</t>
+        </is>
+      </c>
+      <c r="D1434" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1434" t="inlineStr">
+        <is>
+          <t>Dispatch is an open source security incident management tool. The server response includes the JWT Secret Key used for signing JWT tokens in error message when the `Dispatch Plugin - Basic Authentication Provider` plugin encounters an error when attempting to decode a JWT token. Any Dispatch users who own their instance and rely on the `Dispatch Plugin - Basic Authentication Provider` plugin for authentication may be impacted, allowing for any account to be taken over within their own instance. This could be done by using the secret to sign attacker crafted JWTs. If you think that you may be impacted, we strongly suggest you to rotate the secret stored in the `DISPATCH_JWT_SECRET` envvar in the `.env` file. This issue has been addressed in commit `b1942a4319` which has been included in the `20230817` release. users are advised to upgrade. There are no known workarounds for this vulnerability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1435" t="inlineStr">
+        <is>
+          <t>CVE-2023-40172</t>
+        </is>
+      </c>
+      <c r="C1435" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40172</t>
+        </is>
+      </c>
+      <c r="D1435" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1435" t="inlineStr">
+        <is>
+          <t>Social media skeleton is an uncompleted/framework social media project implemented using a php, css ,javascript and html. A Cross-site request forgery (CSRF) attack is a type of malicious attack whereby an attacker tricks a victim into performing an action on a website that they do not intend to do. This can be done by sending the victim a malicious link or by exploiting a vulnerability in the website. Prior to version 1.0.5 Social media skeleton did not properly restrict CSRF attacks. This has been addressed in version 1.0.5 and all users are advised to upgrade. There are no known workarounds for this vulnerability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1436" t="inlineStr">
+        <is>
+          <t>CVE-2023-40173</t>
+        </is>
+      </c>
+      <c r="C1436" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40173</t>
+        </is>
+      </c>
+      <c r="D1436" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1436" t="inlineStr">
+        <is>
+          <t>Social media skeleton is an uncompleted/framework social media project implemented using a php, css ,javascript and html. Prior to version 1.0.5 Social media skeleton did not properly salt passwords leaving user passwords susceptible to cracking should an attacker gain access to hashed passwords. This issue has been addressed in version 1.0.5 and users are advised to upgrade. There are no known workarounds for this issue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1437" t="inlineStr">
+        <is>
+          <t>CVE-2023-40174</t>
+        </is>
+      </c>
+      <c r="C1437" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40174</t>
+        </is>
+      </c>
+      <c r="D1437" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1437" t="inlineStr">
+        <is>
+          <t>Social media skeleton is an uncompleted/framework social media project implemented using a php, css ,javascript and html. Insufficient session expiration is a web application security vulnerability that occurs when a web application does not properly manage the lifecycle of a user's session. Social media skeleton releases prior to 1.0.5 did not properly limit manage user session lifecycles. This issue has been addressed in version 1.0.5 and users are advised to upgrade. There are no known workarounds for this vulnerability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1438" t="inlineStr">
+        <is>
+          <t>CVE-2023-40175</t>
+        </is>
+      </c>
+      <c r="C1438" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40175</t>
+        </is>
+      </c>
+      <c r="D1438" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1438" t="inlineStr">
+        <is>
+          <t>Puma is a Ruby/Rack web server built for parallelism. Prior to versions 6.3.1 and 5.6.7, puma exhibited incorrect behavior when parsing chunked transfer encoding bodies and zero-length Content-Length headers in a way that allowed HTTP request smuggling. Severity of this issue is highly dependent on the nature of the web site using puma is. This could be caused by either incorrect parsing of trailing fields in chunked transfer encoding bodies or by parsing of blank/zero-length Content-Length headers. Both issues have been addressed and this vulnerability has been fixed in versions 6.3.1 and 5.6.7. Users are advised to upgrade. There are no known workarounds for this vulnerability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1439" t="inlineStr">
+        <is>
+          <t>CVE-2023-40251</t>
+        </is>
+      </c>
+      <c r="C1439" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40251</t>
+        </is>
+      </c>
+      <c r="D1439" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1439" t="inlineStr">
+        <is>
+          <t>Missing Encryption of Sensitive DataCAPEC- vulnerability in Genians Genian NAC V4.0, Genians Genian NAC V5.0, Genians Genian NAC Suite V5.0, Genians Genian ZTNA allows Man in the Middle Attack.This issue affects Genian NAC V4.0: from V4.0.0 through V4.0.155; Genian NAC V5.0: from V5.0.0 through V5.0.42 (Revision 117460); Genian NAC Suite V5.0: from V5.0.0 through V5.0.54; Genian ZTNA: from V6.0.0 through V6.0.15.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1440" t="inlineStr">
+        <is>
+          <t>CVE-2023-40252</t>
+        </is>
+      </c>
+      <c r="C1440" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40252</t>
+        </is>
+      </c>
+      <c r="D1440" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1440" t="inlineStr">
+        <is>
+          <t>Improper Control of Generation of Code ('Code Injection') vulnerability in Genians Genian NAC V4.0, Genians Genian NAC V5.0, Genians Genian NAC Suite V5.0, Genians Genian ZTNA allows Replace Trusted Executable.This issue affects Genian NAC V4.0: from V4.0.0 through V4.0.155; Genian NAC V5.0: from V5.0.0 through V5.0.42 (Revision 117460); Genian NAC Suite V5.0: from V5.0.0 through V5.0.54; Genian ZTNA: from V6.0.0 through V6.0.15.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1441" t="inlineStr">
+        <is>
+          <t>CVE-2023-40272</t>
+        </is>
+      </c>
+      <c r="C1441" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40272</t>
+        </is>
+      </c>
+      <c r="D1441" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1441" t="inlineStr">
+        <is>
+          <t>Apache Airflow Spark Provider, versions before 4.1.3, is affected by a vulnerability that allows an attacker to pass in malicious parameters when establishing a connection giving an opportunity to read files on the Airflow server.
+It is recommended to upgrade to a version that is not affected.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1442" t="inlineStr">
+        <is>
+          <t>CVE-2023-4028</t>
+        </is>
+      </c>
+      <c r="C1442" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4028</t>
+        </is>
+      </c>
+      <c r="D1442" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1442" t="inlineStr">
+        <is>
+          <t>A buffer overflow has been identified in the SystemUserMasterHddPwdDxe driver in some Lenovo Notebook products which may allow an attacker with local access and elevated privileges to execute arbitrary code.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1443" t="inlineStr">
+        <is>
+          <t>CVE-2023-40281</t>
+        </is>
+      </c>
+      <c r="C1443" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40281</t>
+        </is>
+      </c>
+      <c r="D1443" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1443" t="inlineStr">
+        <is>
+          <t>EC-CUBE 2.11.0 to 2.17.2-p1 contain a cross-site scripting vulnerability in &amp;quot;mail/template&amp;quot; and &amp;quot;products/product&amp;quot; of Management page.
+If this vulnerability is exploited, an arbitrary script may be executed on the web browser of the other administrator or the user who accessed the website using the product.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1444" t="inlineStr">
+        <is>
+          <t>CVE-2023-4029</t>
+        </is>
+      </c>
+      <c r="C1444" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4029</t>
+        </is>
+      </c>
+      <c r="D1444" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1444" t="inlineStr">
+        <is>
+          <t>A buffer overflow has been identified in the BoardUpdateAcpiDxe driver in some Lenovo ThinkPad products which may allow an attacker with local access and elevated privileges to execute arbitrary code.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1445" t="inlineStr">
+        <is>
+          <t>CVE-2023-4030</t>
+        </is>
+      </c>
+      <c r="C1445" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4030</t>
+        </is>
+      </c>
+      <c r="D1445" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1445" t="inlineStr">
+        <is>
+          <t>A vulnerability was reported in BIOS for ThinkPad P14s Gen 2, P15s Gen 2, T14 Gen 2, and T15 Gen 2 that could cause the system to recover to insecure settings if the BIOS becomes corrupt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1446" t="inlineStr">
+        <is>
+          <t>CVE-2023-40313</t>
+        </is>
+      </c>
+      <c r="C1446" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40313</t>
+        </is>
+      </c>
+      <c r="D1446" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1446" t="inlineStr">
+        <is>
+          <t>A BeanShell interpreter in remote server mode runs in OpenMNS Horizon versions earlier than 32.0.2 and in related Meridian versions which could allow arbitrary remote Java code execution. The solution is to upgrade to Meridian 2023.1.6, 2022.1.19, 2021.1.30, 2020.1.38 or Horizon 32.0.2 or newer. Meridian and Horizon installation instructions state that they are intended for installation within an organization's private networks and should not be directly accessible from the Internet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1447" t="inlineStr">
+        <is>
+          <t>CVE-2023-40315</t>
+        </is>
+      </c>
+      <c r="C1447" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40315</t>
+        </is>
+      </c>
+      <c r="D1447" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1447" t="inlineStr">
+        <is>
+          <t>In OpenMNS Horizon 31.0.8 and versions earlier than 32.0.2 and related Meridian versions, any user that has the ROLE_FILESYSTEM_EDITOR can easily escalate their privileges to ROLE_ADMIN or any other role.&amp;Acirc;&amp;nbsp;The solution is to upgrade to Meridian 2023.1.5 or Horizon 32.0.2 or newer. Meridian and Horizon installation instructions state that they are intended for installation within an organization's private networks and should not be directly accessible from the Internet. OpenNMS thanks Erik Wynter for reporting this issue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1448" t="inlineStr">
+        <is>
+          <t>CVE-2023-40336</t>
+        </is>
+      </c>
+      <c r="C1448" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40336</t>
+        </is>
+      </c>
+      <c r="D1448" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1448" t="inlineStr">
+        <is>
+          <t>A cross-site request forgery (CSRF) vulnerability in Jenkins Folders Plugin 6.846.v23698686f0f6 and earlier allows attackers to copy folders.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1449" t="inlineStr">
+        <is>
+          <t>CVE-2023-40337</t>
+        </is>
+      </c>
+      <c r="C1449" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40337</t>
+        </is>
+      </c>
+      <c r="D1449" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1449" t="inlineStr">
+        <is>
+          <t>A cross-site request forgery (CSRF) vulnerability in Jenkins Folders Plugin 6.846.v23698686f0f6 and earlier allows attackers to copy a view inside a folder.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1450" t="inlineStr">
+        <is>
+          <t>CVE-2023-40338</t>
+        </is>
+      </c>
+      <c r="C1450" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40338</t>
+        </is>
+      </c>
+      <c r="D1450" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1450" t="inlineStr">
+        <is>
+          <t>Jenkins Folders Plugin 6.846.v23698686f0f6 and earlier displays an error message that includes an absolute path of a log file when attempting to access the Scan Organization Folder Log if no logs are available, exposing information about the Jenkins controller file system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1451" t="inlineStr">
+        <is>
+          <t>CVE-2023-40339</t>
+        </is>
+      </c>
+      <c r="C1451" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40339</t>
+        </is>
+      </c>
+      <c r="D1451" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1451" t="inlineStr">
+        <is>
+          <t>Jenkins Config File Provider Plugin 952.va_544a_6234b_46 and earlier does not mask (i.e., replace with asterisks) credentials specified in configuration files when they're written to the build log.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr">
+        <is>
+          <t>CVE-2023-40340</t>
+        </is>
+      </c>
+      <c r="C1452" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40340</t>
+        </is>
+      </c>
+      <c r="D1452" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1452" t="inlineStr">
+        <is>
+          <t>Jenkins NodeJS Plugin 1.6.0 and earlier does not properly mask (i.e., replace with asterisks) credentials specified in the Npm config file in Pipeline build logs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1453" t="inlineStr">
+        <is>
+          <t>CVE-2023-40341 (blue_ocean)</t>
+        </is>
+      </c>
+      <c r="C1453" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40341</t>
+        </is>
+      </c>
+      <c r="D1453" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1453" t="inlineStr">
+        <is>
+          <t>A cross-site request forgery (CSRF) vulnerability in Jenkins Blue Ocean Plugin 1.27.5 and earlier allows attackers to connect to an attacker-specified URL, capturing GitHub credentials associated with an attacker-specified job.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1454" t="inlineStr">
+        <is>
+          <t>CVE-2023-40342 (flaky_test_handler)</t>
+        </is>
+      </c>
+      <c r="C1454" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40342</t>
+        </is>
+      </c>
+      <c r="D1454" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1454" t="inlineStr">
+        <is>
+          <t>Jenkins Flaky Test Handler Plugin 1.2.2 and earlier does not escape JUnit test contents when showing them on the Jenkins UI, resulting in a stored cross-site scripting (XSS) vulnerability exploitable by attackers able to control JUnit report file contents.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1455" t="inlineStr">
+        <is>
+          <t>CVE-2023-40343 (tuleap_authentication)</t>
+        </is>
+      </c>
+      <c r="C1455" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40343</t>
+        </is>
+      </c>
+      <c r="D1455" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1455" t="inlineStr">
+        <is>
+          <t>Jenkins Tuleap Authentication Plugin 1.1.20 and earlier uses a non-constant time comparison function when validating an authentication token allowing attackers to use statistical methods to obtain a valid authentication token.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1456" t="inlineStr">
+        <is>
+          <t>CVE-2023-40344 (delphix)</t>
+        </is>
+      </c>
+      <c r="C1456" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40344</t>
+        </is>
+      </c>
+      <c r="D1456" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1456" t="inlineStr">
+        <is>
+          <t>A missing permission check in Jenkins Delphix Plugin 3.0.2 and earlier allows attackers with Overall/Read permission to enumerate credentials IDs of credentials stored in Jenkins.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1457" t="inlineStr">
+        <is>
+          <t>CVE-2023-40345 (delphix)</t>
+        </is>
+      </c>
+      <c r="C1457" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40345</t>
+        </is>
+      </c>
+      <c r="D1457" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1457" t="inlineStr">
+        <is>
+          <t>Jenkins Delphix Plugin 3.0.2 and earlier does not set the appropriate context for credentials lookup, allowing attackers with Overall/Read permission to access and capture credentials they are not entitled to.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1458" t="inlineStr">
+        <is>
+          <t>CVE-2023-40346 (shortcut_job)</t>
+        </is>
+      </c>
+      <c r="C1458" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40346</t>
+        </is>
+      </c>
+      <c r="D1458" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1458" t="inlineStr">
+        <is>
+          <t>Jenkins Shortcut Job Plugin 0.4 and earlier does not escape the shortcut redirection URL, resulting in a stored cross-site scripting (XSS) vulnerability exploitable by attackers able to configure shortcut jobs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1459" t="inlineStr">
+        <is>
+          <t>CVE-2023-40347 (maven_artifact_choicelistprovider_(nexus))</t>
+        </is>
+      </c>
+      <c r="C1459" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40347</t>
+        </is>
+      </c>
+      <c r="D1459" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1459" t="inlineStr">
+        <is>
+          <t>Jenkins Maven Artifact ChoiceListProvider (Nexus) Plugin 1.14 and earlier does not set the appropriate context for credentials lookup, allowing attackers with Item/Configure permission to access and capture credentials they are not entitled to.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1460" t="inlineStr">
+        <is>
+          <t>CVE-2023-40348 (gogs)</t>
+        </is>
+      </c>
+      <c r="C1460" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40348</t>
+        </is>
+      </c>
+      <c r="D1460" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1460" t="inlineStr">
+        <is>
+          <t>The webhook endpoint in Jenkins Gogs Plugin 1.0.15 and earlier provides unauthenticated attackers information about the existence of jobs in its output.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1461" t="inlineStr">
+        <is>
+          <t>CVE-2023-40349 (gogs)</t>
+        </is>
+      </c>
+      <c r="C1461" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40349</t>
+        </is>
+      </c>
+      <c r="D1461" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1461" t="inlineStr">
+        <is>
+          <t>Jenkins Gogs Plugin 1.0.15 and earlier improperly initializes an option to secure its webhook endpoint, allowing unauthenticated attackers to trigger builds of jobs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1462" t="inlineStr">
+        <is>
+          <t>CVE-2023-40350 (docker_swarm)</t>
+        </is>
+      </c>
+      <c r="C1462" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40350</t>
+        </is>
+      </c>
+      <c r="D1462" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1462" t="inlineStr">
+        <is>
+          <t>Jenkins Docker Swarm Plugin 1.11 and earlier does not escape values returned from Docker before inserting them into the Docker Swarm Dashboard view, resulting in a stored cross-site scripting (XSS) vulnerability exploitable by attackers able to control responses from Docker.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1463" t="inlineStr">
+        <is>
+          <t>CVE-2023-40351</t>
+        </is>
+      </c>
+      <c r="C1463" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40351</t>
+        </is>
+      </c>
+      <c r="D1463" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1463" t="inlineStr">
+        <is>
+          <t>A cross-site request forgery (CSRF) vulnerability in Jenkins Favorite View Plugin 5.v77a_37f62782d and earlier allows attackers to add or remove views from another user's favorite views tab bar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1464" t="inlineStr">
+        <is>
+          <t>CVE-2023-4040</t>
+        </is>
+      </c>
+      <c r="C1464" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4040</t>
+        </is>
+      </c>
+      <c r="D1464" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1464" t="inlineStr">
+        <is>
+          <t>The Stripe Payment Plugin for WooCommerce plugin for WordPress is vulnerable to unauthorized modification of data due to a missing capability check on the eh_callback_handler function in versions up to, and including, 3.7.9. This makes it possible for unauthenticated attackers to modify the order status of arbitrary WooCommerce orders.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1465" t="inlineStr">
+        <is>
+          <t>CVE-2023-40711</t>
+        </is>
+      </c>
+      <c r="C1465" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40711</t>
+        </is>
+      </c>
+      <c r="D1465" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="E1465" t="inlineStr">
+        <is>
+          <t>Veilid before 0.1.9 does not check the size of uncompressed data during decompression upon an envelope receipt, which allows remote attackers to cause a denial of service (out-of-memory abort) via crafted packet data, as exploited in the wild in August 2023.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1466" t="inlineStr">
+        <is>
+          <t>CVE-2023-4204</t>
+        </is>
+      </c>
+      <c r="C1466" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4204</t>
+        </is>
+      </c>
+      <c r="D1466" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1466" t="inlineStr">
+        <is>
+          <t>NPort IAW5000A-I/O Series firmware version v2.2 and prior is affected by a hardcoded credential vulnerabilitywhich poses a potential risk to the security and integrity of the affected device. This vulnerability is attributed to the presence of a hardcoded key, which could potentially facilitate firmware manipulation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1467" t="inlineStr">
+        <is>
+          <t>CVE-2023-4241</t>
+        </is>
+      </c>
+      <c r="C1467" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4241</t>
+        </is>
+      </c>
+      <c r="D1467" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1467" t="inlineStr">
+        <is>
+          <t>lol-html can cause panics on certain HTML inputs. Anyone processing arbitrary 3rd party HTML with the library is affected.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1468" t="inlineStr">
+        <is>
+          <t>CVE-2023-4374</t>
+        </is>
+      </c>
+      <c r="C1468" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4374</t>
+        </is>
+      </c>
+      <c r="D1468" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1468" t="inlineStr">
+        <is>
+          <t>The WP Remote Users Sync plugin for WordPress is vulnerable to unauthorized access of data and addition of data due to a missing capability check on the 'refresh_logs_async' functions in versions up to, and including, 1.2.11. This makes it possible for authenticated attackers with subscriber privileges or above, to view logs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1469" t="inlineStr">
+        <is>
+          <t>CVE-2023-4381</t>
+        </is>
+      </c>
+      <c r="C1469" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4381</t>
+        </is>
+      </c>
+      <c r="D1469" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1469" t="inlineStr">
+        <is>
+          <t>Unverified Password Change in GitHub repository instantsoft/icms2 prior to 2.16.1-git.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1470" t="inlineStr">
+        <is>
+          <t>CVE-2023-4382</t>
+        </is>
+      </c>
+      <c r="C1470" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4382</t>
+        </is>
+      </c>
+      <c r="D1470" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1470" t="inlineStr">
+        <is>
+          <t>A vulnerability, which was classified as problematic, has been found in tdevs Hyip Rio 2.1. Affected by this issue is some unknown functionality of the file /user/settings of the component Profile Settings. The manipulation of the argument avatar leads to cross site scripting. The attack may be launched remotely. VDB-237314 is the identifier assigned to this vulnerability. NOTE: The vendor was contacted early about this disclosure but did not respond in any way.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1471" t="inlineStr">
+        <is>
+          <t>CVE-2023-4383</t>
+        </is>
+      </c>
+      <c r="C1471" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4383</t>
+        </is>
+      </c>
+      <c r="D1471" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1471" t="inlineStr">
+        <is>
+          <t>A vulnerability, which was classified as critical, was found in MicroWorld eScan Anti-Virus 7.0.32 on Linux. This affects an unknown part of the file runasroot. The manipulation leads to incorrect execution-assigned permissions. The attack needs to be approached locally. The exploit has been disclosed to the public and may be used. The associated identifier of this vulnerability is VDB-237315. NOTE: The vendor was contacted early about this disclosure but did not respond in any way.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1472" t="inlineStr">
+        <is>
+          <t>CVE-2023-4384</t>
+        </is>
+      </c>
+      <c r="C1472" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4384</t>
+        </is>
+      </c>
+      <c r="D1472" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1472" t="inlineStr">
+        <is>
+          <t>A vulnerability has been found in MaximaTech Portal Executivo 21.9.1.140 and classified as problematic. This vulnerability affects unknown code of the component Cookie Handler. The manipulation leads to missing encryption of sensitive data. The attack can be initiated remotely. The complexity of an attack is rather high. The exploitation appears to be difficult. The exploit has been disclosed to the public and may be used. The identifier of this vulnerability is VDB-237316. NOTE: The vendor was contacted early about this disclosure but did not respond in any way.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1473" t="inlineStr">
+        <is>
+          <t>CVE-2023-4385</t>
+        </is>
+      </c>
+      <c r="C1473" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4385</t>
+        </is>
+      </c>
+      <c r="D1473" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1473" t="inlineStr">
+        <is>
+          <t>A NULL pointer dereference flaw was found in dbFree in fs/jfs/jfs_dmap.c in the journaling file system (JFS) in the Linux Kernel. This issue may allow a local attacker to crash the system due to a missing sanity check.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1474" t="inlineStr">
+        <is>
+          <t>CVE-2023-4387</t>
+        </is>
+      </c>
+      <c r="C1474" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4387</t>
+        </is>
+      </c>
+      <c r="D1474" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1474" t="inlineStr">
+        <is>
+          <t>A use-after-free flaw was found in vmxnet3_rq_alloc_rx_buf in drivers/net/vmxnet3/vmxnet3_drv.c in VMware's vmxnet3 ethernet NIC driver in the Linux Kernel. This issue could allow a local attacker to crash the system due to a double-free while cleaning up vmxnet3_rq_cleanup_all, which could also lead to a kernel information leak problem.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1475" t="inlineStr">
+        <is>
+          <t>CVE-2023-4389</t>
+        </is>
+      </c>
+      <c r="C1475" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4389</t>
+        </is>
+      </c>
+      <c r="D1475" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1475" t="inlineStr">
+        <is>
+          <t>A flaw was found in btrfs_get_root_ref in fs/btrfs/disk-io.c in the btrfs filesystem in the Linux Kernel due to a double decrement of the reference count. This issue may allow a local attacker with user privilege to crash the system or may lead to leaked internal kernel information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1476" t="inlineStr">
+        <is>
+          <t>CVE-2023-4392</t>
+        </is>
+      </c>
+      <c r="C1476" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4392</t>
+        </is>
+      </c>
+      <c r="D1476" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1476" t="inlineStr">
+        <is>
+          <t>A vulnerability was found in Control iD Gerencia Web 1.30 and classified as problematic. Affected by this issue is some unknown functionality of the component Cookie Handler. The manipulation leads to cleartext storage of sensitive information. The attack may be launched remotely. The complexity of an attack is rather high. The exploitation is known to be difficult. The exploit has been disclosed to the public and may be used. The identifier of this vulnerability is VDB-237380. NOTE: The vendor was contacted early about this disclosure but did not respond in any way.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1477" t="inlineStr">
+        <is>
+          <t>CVE-2023-4394</t>
+        </is>
+      </c>
+      <c r="C1477" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4394</t>
+        </is>
+      </c>
+      <c r="D1477" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1477" t="inlineStr">
+        <is>
+          <t>A use-after-free flaw was found in btrfs_get_dev_args_from_path in fs/btrfs/volumes.c in btrfs file-system in the Linux Kernel. This flaw allows a local attacker with special privileges to cause a system crash or leak internal kernel information</t>
+        </is>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1478" t="inlineStr">
+        <is>
+          <t>CVE-2023-4395</t>
+        </is>
+      </c>
+      <c r="C1478" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4395</t>
+        </is>
+      </c>
+      <c r="D1478" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1478" t="inlineStr">
+        <is>
+          <t>Cross-site Scripting (XSS) - Stored in GitHub repository cockpit-hq/cockpit prior to 2.6.4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1479" t="inlineStr">
+        <is>
+          <t>CVE-2023-4407</t>
+        </is>
+      </c>
+      <c r="C1479" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4407</t>
+        </is>
+      </c>
+      <c r="D1479" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1479" t="inlineStr">
+        <is>
+          <t>A vulnerability classified as critical was found in Codecanyon Credit Lite 1.5.4. Affected by this vulnerability is an unknown functionality of the file /portal/reports/account_statement of the component POST Request Handler. The manipulation of the argument date1/date2 leads to sql injection. The attack can be launched remotely. The associated identifier of this vulnerability is VDB-237511.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1480" t="inlineStr">
+        <is>
+          <t>CVE-2023-4409</t>
+        </is>
+      </c>
+      <c r="C1480" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4409</t>
+        </is>
+      </c>
+      <c r="D1480" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1480" t="inlineStr">
+        <is>
+          <t>A vulnerability, which was classified as critical, has been found in NBS&amp;amp;HappySoftWeChat 1.1.6. Affected by this issue is some unknown functionality. The manipulation leads to unrestricted upload. The attack may be launched remotely. The exploit has been disclosed to the public and may be used. The identifier of this vulnerability is VDB-237512.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1481" t="inlineStr">
+        <is>
+          <t>CVE-2023-4410</t>
+        </is>
+      </c>
+      <c r="C1481" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4410</t>
+        </is>
+      </c>
+      <c r="D1481" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1481" t="inlineStr">
+        <is>
+          <t>A vulnerability, which was classified as critical, was found in TOTOLINK EX1200L EN_V9.3.5u.6146_B20201023. This affects the function setDiagnosisCfg. The manipulation leads to os command injection. It is possible to initiate the attack remotely. The exploit has been disclosed to the public and may be used. The identifier VDB-237513 was assigned to this vulnerability. NOTE: The vendor was contacted early about this disclosure but did not respond in any way.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1482" t="inlineStr">
+        <is>
+          <t>CVE-2023-4411</t>
+        </is>
+      </c>
+      <c r="C1482" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4411</t>
+        </is>
+      </c>
+      <c r="D1482" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1482" t="inlineStr">
+        <is>
+          <t>A vulnerability has been found in TOTOLINK EX1200L EN_V9.3.5u.6146_B20201023 and classified as critical. This vulnerability affects the function setTracerouteCfg. The manipulation leads to os command injection. The attack can be initiated remotely. The exploit has been disclosed to the public and may be used. VDB-237514 is the identifier assigned to this vulnerability. NOTE: The vendor was contacted early about this disclosure but did not respond in any way.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1483" t="inlineStr">
+        <is>
+          <t>CVE-2023-4412</t>
+        </is>
+      </c>
+      <c r="C1483" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4412</t>
+        </is>
+      </c>
+      <c r="D1483" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1483" t="inlineStr">
+        <is>
+          <t>A vulnerability was found in TOTOLINK EX1200L EN_V9.3.5u.6146_B20201023 and classified as critical. This issue affects the function setWanCfg. The manipulation leads to os command injection. The attack may be initiated remotely. The exploit has been disclosed to the public and may be used. The associated identifier of this vulnerability is VDB-237515. NOTE: The vendor was contacted early about this disclosure but did not respond in any way.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1484" t="inlineStr">
+        <is>
+          <t>CVE-2023-4413</t>
+        </is>
+      </c>
+      <c r="C1484" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4413</t>
+        </is>
+      </c>
+      <c r="D1484" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1484" t="inlineStr">
+        <is>
+          <t>A vulnerability was found in rkhunter Rootkit Hunter 1.4.4/1.4.6. It has been classified as problematic. Affected is an unknown function of the file /var/log/rkhunter.log. The manipulation leads to sensitive information in log files. An attack has to be approached locally. The complexity of an attack is rather high. The exploitability is told to be difficult. The exploit has been disclosed to the public and may be used. The identifier of this vulnerability is VDB-237516.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1485" t="inlineStr">
+        <is>
+          <t>CVE-2023-4414</t>
+        </is>
+      </c>
+      <c r="C1485" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4414</t>
+        </is>
+      </c>
+      <c r="D1485" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1485" t="inlineStr">
+        <is>
+          <t>A vulnerability was found in Beijing Baichuo Smart S85F Management Platform up to 20230807. It has been declared as critical. Affected by this vulnerability is an unknown functionality of the file /log/decodmail.php. The manipulation of the argument file leads to command injection. The attack can be launched remotely. The exploit has been disclosed to the public and may be used. The identifier VDB-237517 was assigned to this vulnerability. NOTE: The vendor was contacted early about this disclosure but did not respond in any way.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1486" t="inlineStr">
+        <is>
+          <t>CVE-2023-4415</t>
+        </is>
+      </c>
+      <c r="C1486" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4415</t>
+        </is>
+      </c>
+      <c r="D1486" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1486" t="inlineStr">
+        <is>
+          <t>A vulnerability was found in Ruijie RG-EW1200G 07161417 r483. It has been rated as critical. Affected by this issue is some unknown functionality of the file /api/sys/login. The manipulation leads to improper authentication. The attack may be launched remotely. The exploit has been disclosed to the public and may be used. VDB-237518 is the identifier assigned to this vulnerability. NOTE: The vendor was contacted early about this disclosure but did not respond in any way.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr">
+        <is>
+          <t>CVE-2023-4422</t>
+        </is>
+      </c>
+      <c r="C1487" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4422</t>
+        </is>
+      </c>
+      <c r="D1487" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1487" t="inlineStr">
+        <is>
+          <t>Cross-site Scripting (XSS) - Stored in GitHub repository cockpit-hq/cockpit prior to 2.6.3.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr">
+        <is>
+          <t>CVE-2023-4432</t>
+        </is>
+      </c>
+      <c r="C1488" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4432</t>
+        </is>
+      </c>
+      <c r="D1488" t="inlineStr">
+        <is>
+          <t>2023-08-19</t>
+        </is>
+      </c>
+      <c r="E1488" t="inlineStr">
+        <is>
+          <t>Cross-site Scripting (XSS) - Reflected in GitHub repository cockpit-hq/cockpit prior to 2.6.4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1489" t="inlineStr">
+        <is>
+          <t>CVE-2023-4433</t>
+        </is>
+      </c>
+      <c r="C1489" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4433</t>
+        </is>
+      </c>
+      <c r="D1489" t="inlineStr">
+        <is>
+          <t>2023-08-19</t>
+        </is>
+      </c>
+      <c r="E1489" t="inlineStr">
+        <is>
+          <t>Cross-site Scripting (XSS) - Stored in GitHub repository cockpit-hq/cockpit prior to 2.6.4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1490" t="inlineStr">
+        <is>
+          <t>CVE-2023-4434</t>
+        </is>
+      </c>
+      <c r="C1490" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4434</t>
+        </is>
+      </c>
+      <c r="D1490" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="E1490" t="inlineStr">
+        <is>
+          <t>Missing Authorization in GitHub repository hamza417/inure prior to build88.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr">
+        <is>
+          <t>CVE-2023-4435</t>
+        </is>
+      </c>
+      <c r="C1491" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4435</t>
+        </is>
+      </c>
+      <c r="D1491" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="E1491" t="inlineStr">
+        <is>
+          <t>Improper Input Validation in GitHub repository hamza417/inure prior to build88.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1492" t="inlineStr">
+        <is>
+          <t>CVE-2023-4436</t>
+        </is>
+      </c>
+      <c r="C1492" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4436</t>
+        </is>
+      </c>
+      <c r="D1492" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="E1492" t="inlineStr">
+        <is>
+          <t>A vulnerability, which was classified as critical, has been found in SourceCodester Inventory Management System 1.0. This issue affects some unknown processing of the file app/action/edit_update.php. The manipulation of the argument user_id leads to sql injection. The attack may be initiated remotely. The exploit has been disclosed to the public and may be used. The identifier VDB-237557 was assigned to this vulnerability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1493" t="inlineStr">
+        <is>
+          <t>CVE-2023-4437</t>
+        </is>
+      </c>
+      <c r="C1493" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4437</t>
+        </is>
+      </c>
+      <c r="D1493" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="E1493" t="inlineStr">
+        <is>
+          <t>A vulnerability, which was classified as critical, was found in SourceCodester Inventory Management System 1.0. Affected is an unknown function of the file app/ajax/search_sell_paymen_report.php. The manipulation of the argument customer leads to sql injection. It is possible to launch the attack remotely. The exploit has been disclosed to the public and may be used. VDB-237558 is the identifier assigned to this vulnerability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1494" t="inlineStr">
+        <is>
+          <t>CVE-2023-4438</t>
+        </is>
+      </c>
+      <c r="C1494" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4438</t>
+        </is>
+      </c>
+      <c r="D1494" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="E1494" t="inlineStr">
+        <is>
+          <t>A vulnerability has been found in SourceCodester Inventory Management System 1.0 and classified as critical. Affected by this vulnerability is an unknown functionality of the file app/ajax/search_sales_report.php. The manipulation of the argument customer leads to sql injection. The attack can be launched remotely. The exploit has been disclosed to the public and may be used. The associated identifier of this vulnerability is VDB-237559.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1495" t="inlineStr">
+        <is>
+          <t>CVE-2023-4439</t>
+        </is>
+      </c>
+      <c r="C1495" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4439</t>
+        </is>
+      </c>
+      <c r="D1495" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="E1495" t="inlineStr">
+        <is>
+          <t>A vulnerability was found in SourceCodester Card Holder Management System 1.0 and classified as problematic. Affected by this issue is some unknown functionality of the component Minus Value Handler. The manipulation leads to improper validation of specified quantity in input. The attack may be launched remotely. The identifier of this vulnerability is VDB-237560.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1496" t="inlineStr">
+        <is>
+          <t>CVE-2023-4440</t>
+        </is>
+      </c>
+      <c r="C1496" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4440</t>
+        </is>
+      </c>
+      <c r="D1496" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="E1496" t="inlineStr">
+        <is>
+          <t>A vulnerability was found in SourceCodester Free Hospital Management System for Small Practices 1.0. It has been classified as critical. This affects an unknown part of the file appointment.php. The manipulation of the argument sheduledate leads to sql injection. It is possible to initiate the attack remotely. The exploit has been disclosed to the public and may be used. The identifier VDB-237561 was assigned to this vulnerability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1497" t="inlineStr">
+        <is>
+          <t>CVE-2023-4451</t>
+        </is>
+      </c>
+      <c r="C1497" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4451</t>
+        </is>
+      </c>
+      <c r="D1497" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="E1497" t="inlineStr">
+        <is>
+          <t>Cross-site Scripting (XSS) - Reflected in GitHub repository cockpit-hq/cockpit prior to 2.6.4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1498" t="inlineStr">
+        <is>
+          <t>CVE-2023-20013</t>
+        </is>
+      </c>
+      <c r="C1498" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20013</t>
+        </is>
+      </c>
+      <c r="D1498" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1498" t="inlineStr">
+        <is>
+          <t>Multiple vulnerabilities in Cisco Intersight Private Virtual Appliance could allow an authenticated, remote attacker to execute arbitrary commands using root-level privileges. The attacker would need to have Administrator privileges on the affected device to exploit these vulnerabilities.
+ These vulnerabilities are due to insufficient input validation when extracting uploaded software packages. An attacker could exploit these vulnerabilities by authenticating to an affected device and uploading a crafted software package. A successful exploit could allow the attacker to execute commands on the underlying operating system with root-level privileges.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1499" t="inlineStr">
+        <is>
+          <t>CVE-2023-20017</t>
+        </is>
+      </c>
+      <c r="C1499" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20017</t>
+        </is>
+      </c>
+      <c r="D1499" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1499" t="inlineStr">
+        <is>
+          <t>Multiple vulnerabilities in Cisco Intersight Private Virtual Appliance could allow an authenticated, remote attacker to execute arbitrary commands using root-level privileges. The attacker would need to have Administrator privileges on the affected device to exploit these vulnerabilities.
+ These vulnerabilities are due to insufficient input validation when extracting uploaded software packages. An attacker could exploit these vulnerabilities by authenticating to an affected device and uploading a crafted software package. A successful exploit could allow the attacker to execute commands on the underlying operating system with root-level privileges.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1500" t="inlineStr">
+        <is>
+          <t>CVE-2023-20111</t>
+        </is>
+      </c>
+      <c r="C1500" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20111</t>
+        </is>
+      </c>
+      <c r="D1500" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1500" t="inlineStr">
+        <is>
+          <t>A vulnerability in the web-based management interface of Cisco Identity Services Engine (ISE) could allow an authenticated, remote attacker to access sensitive information.
+ This vulnerability is due to the improper storage of sensitive information within the web-based management interface. An attacker could exploit this vulnerability by logging in to the web-based management interface and viewing hidden fields within the application. A successful exploit could allow the attacker to access sensitive information, including device entry credentials, that could aid the attacker in further attacks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1501" t="inlineStr">
+        <is>
+          <t>CVE-2023-20197</t>
+        </is>
+      </c>
+      <c r="C1501" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20197</t>
+        </is>
+      </c>
+      <c r="D1501" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1501" t="inlineStr">
+        <is>
+          <t>A vulnerability in the filesystem image parser for Hierarchical File System Plus (HFS+) of ClamAV could allow an unauthenticated, remote attacker to cause a denial of service (DoS) condition on an affected device.
+ This vulnerability is due to an incorrect check for completion when a file is decompressed, which may result in a loop condition that could cause the affected software to stop responding. An attacker could exploit this vulnerability by submitting a crafted HFS+ filesystem image to be scanned by ClamAV on an affected device. A successful exploit could allow the attacker to cause the ClamAV scanning process to stop responding, resulting in a DoS condition on the affected software and consuming available system resources.
+ For a description of this vulnerability, see the ClamAV blog .</t>
+        </is>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1502" t="inlineStr">
+        <is>
+          <t>CVE-2023-20201</t>
+        </is>
+      </c>
+      <c r="C1502" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20201</t>
+        </is>
+      </c>
+      <c r="D1502" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1502" t="inlineStr">
+        <is>
+          <t>Multiple vulnerabilities in the web-based management interface of Cisco Prime Infrastructure and Cisco Evolved Programmable Network Manager (EPNM) could allow an authenticated, remote attacker to conduct a stored cross-site scripting (XSS) attack against a user of the interface on an affected device.
+ These vulnerabilities are due to insufficient validation of user-supplied input. An attacker could exploit these vulnerabilities by persuading a user of an affected interface to view a page containing malicious HTML or script content. A successful exploit could allow the attacker to execute arbitrary script code in the context of the affected interface or access sensitive, browser-based information. To exploit these vulnerabilities, the attacker must have valid credentials to access the web-based management interface of the affected device.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1503" t="inlineStr">
+        <is>
+          <t>CVE-2023-20203</t>
+        </is>
+      </c>
+      <c r="C1503" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20203</t>
+        </is>
+      </c>
+      <c r="D1503" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>Multiple vulnerabilities in the web-based management interface of Cisco Prime Infrastructure and Cisco Evolved Programmable Network Manager (EPNM) could allow an authenticated, remote attacker to conduct a stored cross-site scripting (XSS) attack against a user of the interface on an affected device.
+ These vulnerabilities are due to insufficient validation of user-supplied input. An attacker could exploit these vulnerabilities by persuading a user of an affected interface to view a page containing malicious HTML or script content. A successful exploit could allow the attacker to execute arbitrary script code in the context of the affected interface or access sensitive, browser-based information. To exploit these vulnerabilities, the attacker must have valid credentials to access the web-based management interface of the affected device.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1504" t="inlineStr">
+        <is>
+          <t>CVE-2023-20205</t>
+        </is>
+      </c>
+      <c r="C1504" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20205</t>
+        </is>
+      </c>
+      <c r="D1504" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>Multiple vulnerabilities in the web-based management interface of Cisco Prime Infrastructure and Cisco Evolved Programmable Network Manager (EPNM) could allow an authenticated, remote attacker to conduct a stored cross-site scripting (XSS) attack against a user of the interface on an affected device.
+ These vulnerabilities are due to insufficient validation of user-supplied input. An attacker could exploit these vulnerabilities by persuading a user of an affected interface to view a page containing malicious HTML or script content. A successful exploit could allow the attacker to execute arbitrary script code in the context of the affected interface or access sensitive, browser-based information. To exploit these vulnerabilities, the attacker must have valid credentials to access the web-based management interface of the affected device.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1505" t="inlineStr">
+        <is>
+          <t>CVE-2023-20209</t>
+        </is>
+      </c>
+      <c r="C1505" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20209</t>
+        </is>
+      </c>
+      <c r="D1505" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1505" t="inlineStr">
+        <is>
+          <t>A vulnerability in the web-based management interface of Cisco Expressway Series and Cisco TelePresence Video Communication Server (VCS) could allow an authenticated, remote attacker with read-write privileges on the application to perform a command injection attack that could result in remote code execution on an affected device.
+ This vulnerability is due to insufficient validation of user-supplied input. An attacker could exploit this vulnerability by sending a crafted request to the web-based management interface of an affected device. A successful exploit could allow the attacker to establish a remote shell with root privileges.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t>CVE-2023-20211</t>
+        </is>
+      </c>
+      <c r="C1506" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20211</t>
+        </is>
+      </c>
+      <c r="D1506" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1506" t="inlineStr">
+        <is>
+          <t>A vulnerability in the web-based management interface of Cisco Unified Communications Manager (Unified CM) and Cisco Unified Communications Manager Session Management Edition (Unified CM SME) could allow an authenticated, remote attacker to conduct SQL injection attacks on an affected system. 
+ This vulnerability is due to improper validation of user-supplied input. An attacker could exploit this vulnerability by authenticating to the application as a user with read-only or higher privileges and sending crafted HTTP requests to an affected system. A successful exploit could allow the attacker to read or modify data in the underlying database or elevate their privileges.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1507" t="inlineStr">
+        <is>
+          <t>CVE-2023-20212</t>
+        </is>
+      </c>
+      <c r="C1507" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20212</t>
+        </is>
+      </c>
+      <c r="D1507" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E1507" t="inlineStr">
+        <is>
+          <t>A vulnerability in the AutoIt module of ClamAV could allow an unauthenticated, remote attacker to cause a denial of service (DoS) condition on an affected device. 
+ This vulnerability is due to a logic error in the memory management of an affected device. An attacker could exploit this vulnerability by submitting a crafted AutoIt file to be scanned by ClamAV on the affected device. A successful exploit could allow the attacker to cause the ClamAV scanning process to restart unexpectedly, resulting in a DoS condition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1508" t="inlineStr">
+        <is>
+          <t>CVE-2023-20217</t>
+        </is>
+      </c>
+      <c r="C1508" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20217</t>
+        </is>
+      </c>
+      <c r="D1508" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1508" t="inlineStr">
+        <is>
+          <t>A vulnerability in the CLI of Cisco ThousandEyes Enterprise Agent, Virtual Appliance installation type, could allow an authenticated, local attacker to elevate privileges on an affected device.
+ This vulnerability is due to insufficient input validation by the operating system CLI. An attacker could exploit this vulnerability by issuing certain commands using sudo. A successful exploit could allow the attacker to view arbitrary files as root on the underlying operating system. The attacker must have valid credentials on the affected device.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1509" t="inlineStr">
+        <is>
+          <t>CVE-2023-20221</t>
+        </is>
+      </c>
+      <c r="C1509" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20221</t>
+        </is>
+      </c>
+      <c r="D1509" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1509" t="inlineStr">
+        <is>
+          <t>A vulnerability in the web-based management interface of Cisco IP Phone 6800, 7800, and 8800 Series with Multiplatform Firmware could allow an unauthenticated, remote attacker to conduct a cross-site request forgery (CSRF) attack against a user of the web-based management interface of an affected system.
+ This vulnerability is due to insufficient CSRF protections for the web-based management interface of an affected device. An attacker could exploit this vulnerability by persuading an authenticated user of the interface to follow a crafted link. A successful exploit could allow the attacker to perform a factory reset of the affected device, resulting in a Denial of Service (DoS) condition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>CVE-2023-20222</t>
+        </is>
+      </c>
+      <c r="C1510" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20222</t>
+        </is>
+      </c>
+      <c r="D1510" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1510" t="inlineStr">
+        <is>
+          <t>A vulnerability in the web-based management interface of Cisco Prime Infrastructure and Cisco Evolved Programmable Network Manager (EPNM) could allow an unauthenticated, remote attacker to conduct a cross-site scripting (XSS) attack against a user of the interface on an affected device.
+ The vulnerability is due to insufficient validation of user-supplied input by the web-based management interface of an affected system. An attacker could exploit this vulnerability by injecting malicious code into specific pages of the interface. A successful exploit could allow the attacker to execute arbitrary script code in the context of the affected interface or access sensitive, browser-based information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>CVE-2023-20224</t>
+        </is>
+      </c>
+      <c r="C1511" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20224</t>
+        </is>
+      </c>
+      <c r="D1511" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1511" t="inlineStr">
+        <is>
+          <t>A vulnerability in the CLI of Cisco ThousandEyes Enterprise Agent, Virtual Appliance installation type, could allow an authenticated, local attacker to elevate privileges to root on an affected device.
+ This vulnerability is due to insufficient input validation of user-supplied CLI arguments. An attacker could exploit this vulnerability by authenticating to an affected device and using crafted commands at the prompt. A successful exploit could allow the attacker to execute arbitrary commands as root. The attacker must have valid credentials on the affected device.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1512" t="inlineStr">
+        <is>
+          <t>CVE-2023-20228</t>
+        </is>
+      </c>
+      <c r="C1512" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20228</t>
+        </is>
+      </c>
+      <c r="D1512" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1512" t="inlineStr">
+        <is>
+          <t>A vulnerability in the web-based management interface of Cisco Integrated Management Controller (IMC) could allow an unauthenticated, remote attacker to conduct a cross-site scripting (XSS) attack against a user of the interface.
+ This vulnerability is due to insufficient validation of user input. An attacker could exploit this vulnerability by persuading a user of an affected interface to click a crafted link. A successful exploit could allow the attacker to execute arbitrary script code in the browser of the targeted user or access sensitive, browser-based information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1513" t="inlineStr">
+        <is>
+          <t>CVE-2023-20229</t>
+        </is>
+      </c>
+      <c r="C1513" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20229</t>
+        </is>
+      </c>
+      <c r="D1513" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1513" t="inlineStr">
+        <is>
+          <t>A vulnerability in the CryptoService function of Cisco Duo Device Health Application for Windows could allow an authenticated, local attacker with low privileges to conduct directory traversal attacks and overwrite arbitrary files on an affected system.
+ This vulnerability is due to insufficient input validation. An attacker could exploit this vulnerability by executing a directory traversal attack on an affected host. A successful exploit could allow an attacker to use a cryptographic key to overwrite arbitrary files with SYSTEM-level privileges, resulting in a denial of service (DoS) condition or data loss on the affected system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>CVE-2023-20232</t>
+        </is>
+      </c>
+      <c r="C1514" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20232</t>
+        </is>
+      </c>
+      <c r="D1514" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1514" t="inlineStr">
+        <is>
+          <t>A vulnerability in the Tomcat implementation for Cisco Unified Contact Center Express (Unified CCX) could allow an unauthenticated, remote attacker to cause a web cache poisoning attack on an affected device. 
+ This vulnerability is due to improper input validation of HTTP requests. An attacker could exploit this vulnerability by sending crafted HTTP requests to a specific API endpoint on the Unified CCX Finesse Portal. A successful exploit could allow the attacker to cause the internal WebProxy to redirect users to an attacker-controlled host.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1515" t="inlineStr">
+        <is>
+          <t>CVE-2023-20237</t>
+        </is>
+      </c>
+      <c r="C1515" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20237</t>
+        </is>
+      </c>
+      <c r="D1515" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1515" t="inlineStr">
+        <is>
+          <t>A vulnerability in Cisco Intersight Virtual Appliance could allow an unauthenticated, adjacent attacker to access internal HTTP services that are otherwise inaccessible.
+ This vulnerability is due to insufficient restrictions on internally accessible http proxies. An attacker could exploit this vulnerability by submitting a crafted CLI command. A successful exploit could allow the attacker access to internal subnets beyond the sphere of their intended access level.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1516" t="inlineStr">
+        <is>
+          <t>CVE-2023-20242</t>
+        </is>
+      </c>
+      <c r="C1516" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20242</t>
+        </is>
+      </c>
+      <c r="D1516" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E1516" t="inlineStr">
+        <is>
+          <t>A vulnerability in the web-based management interface of Cisco Unified Communications Manager (Unified CM), Cisco Unified CM Session Management Edition (Unified CM SME), and Cisco Unified Communications Manager IM &amp;amp;amp; Presence Service (Unified CM IM&amp;amp;amp;P) could allow an unauthenticated, remote attacker to conduct a cross-site scripting (XSS) attack against a user of the interface.
+ This vulnerability exists because the web-based management interface does not properly validate user-supplied input. An attacker could exploit this vulnerability by persuading a user of the interface to click a crafted link. A successful exploit could allow the attacker to execute arbitrary script code in the context of the affected interface or access sensitive, browser-based information.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/testing/nvd/National_Vulnerability_Database.xlsx
+++ b/testing/nvd/National_Vulnerability_Database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1516"/>
+  <dimension ref="A1:E1533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41098,23 +41098,22 @@
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>CVE-2023-20013</t>
+          <t>CVE-2020-28715</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20013</t>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2020-28715</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>Multiple vulnerabilities in Cisco Intersight Private Virtual Appliance could allow an authenticated, remote attacker to execute arbitrary commands using root-level privileges. The attacker would need to have Administrator privileges on the affected device to exploit these vulnerabilities.
- These vulnerabilities are due to insufficient input validation when extracting uploaded software packages. An attacker could exploit these vulnerabilities by authenticating to an affected device and uploading a crafted software package. A successful exploit could allow the attacker to execute commands on the underlying operating system with root-level privileges.</t>
+          <t>An issue was discovered in kdmserver service in LeEco LeTV X43 version V2401RCN02C080080B04121S, allows attackers to execute arbitrary code, escalate privileges, and cause a denial of service (DoS).</t>
         </is>
       </c>
     </row>
@@ -41126,23 +41125,26 @@
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>CVE-2023-20017</t>
+          <t>CVE-2022-46751</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20017</t>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2022-46751</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>Multiple vulnerabilities in Cisco Intersight Private Virtual Appliance could allow an authenticated, remote attacker to execute arbitrary commands using root-level privileges. The attacker would need to have Administrator privileges on the affected device to exploit these vulnerabilities.
- These vulnerabilities are due to insufficient input validation when extracting uploaded software packages. An attacker could exploit these vulnerabilities by authenticating to an affected device and uploading a crafted software package. A successful exploit could allow the attacker to execute commands on the underlying operating system with root-level privileges.</t>
+          <t>Improper Restriction of XML External Entity Reference, XML Injection (aka Blind XPath Injection) vulnerability in Apache Software Foundation Apache Ivy.This issue affects any version of Apache Ivy prior to 2.5.2.
+When Apache Ivy prior to 2.5.2 parses XML files - either its own configuration, Ivy files or Apache Maven POMs - it will allow downloading external document type definitions and expand any entity references contained therein when used.
+This can be used to exfiltrate data, access resources only the machine running Ivy has access to or disturb the execution of Ivy in different ways.
+Starting with Ivy 2.5.2 DTD processing is disabled by default except when parsing Maven POMs where the default is to allow DTD processing but only to include a DTD snippet shipping with Ivy that is needed to deal with existing Maven POMs that are not valid XML files but are nevertheless accepted by Maven. Access can be be made more lenient via newly introduced system properties where needed.
+Users of Ivy prior to version 2.5.2 can use Java system properties to restrict processing of external DTDs, see the section about &amp;quot;JAXP Properties for External Access restrictions&amp;quot; inside Oracle's &amp;quot;Java API for XML Processing (JAXP) Security Guide&amp;quot;.</t>
         </is>
       </c>
     </row>
@@ -41154,23 +41156,22 @@
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>CVE-2023-20111</t>
+          <t>CVE-2023-3481</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20111</t>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-3481</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>A vulnerability in the web-based management interface of Cisco Identity Services Engine (ISE) could allow an authenticated, remote attacker to access sensitive information.
- This vulnerability is due to the improper storage of sensitive information within the web-based management interface. An attacker could exploit this vulnerability by logging in to the web-based management interface and viewing hidden fields within the application. A successful exploit could allow the attacker to access sensitive information, including device entry credentials, that could aid the attacker in further attacks.</t>
+          <t>Critters versions 0.0.17-0.0.19 have an issue when parsing the HTML, which leads to a potential cross-site scripting (XSS) bug. We recommend upgrading to version 0.0.20 of the extension.&amp;Acirc;&amp;nbsp;</t>
         </is>
       </c>
     </row>
@@ -41182,24 +41183,22 @@
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>CVE-2023-20197</t>
+          <t>CVE-2023-38899</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20197</t>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-38899</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>A vulnerability in the filesystem image parser for Hierarchical File System Plus (HFS+) of ClamAV could allow an unauthenticated, remote attacker to cause a denial of service (DoS) condition on an affected device.
- This vulnerability is due to an incorrect check for completion when a file is decompressed, which may result in a loop condition that could cause the affected software to stop responding. An attacker could exploit this vulnerability by submitting a crafted HFS+ filesystem image to be scanned by ClamAV on an affected device. A successful exploit could allow the attacker to cause the ClamAV scanning process to stop responding, resulting in a DoS condition on the affected software and consuming available system resources.
- For a description of this vulnerability, see the ClamAV blog .</t>
+          <t>SQL injection vulnerability in berkaygediz O_Blog v.1.0 allows a local attacker to escalate privileges via the secure_file_priv component.</t>
         </is>
       </c>
     </row>
@@ -41211,23 +41210,22 @@
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>CVE-2023-20201</t>
+          <t>CVE-2023-39543</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20201</t>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39543</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="E1502" t="inlineStr">
         <is>
-          <t>Multiple vulnerabilities in the web-based management interface of Cisco Prime Infrastructure and Cisco Evolved Programmable Network Manager (EPNM) could allow an authenticated, remote attacker to conduct a stored cross-site scripting (XSS) attack against a user of the interface on an affected device.
- These vulnerabilities are due to insufficient validation of user-supplied input. An attacker could exploit these vulnerabilities by persuading a user of an affected interface to view a page containing malicious HTML or script content. A successful exploit could allow the attacker to execute arbitrary script code in the context of the affected interface or access sensitive, browser-based information. To exploit these vulnerabilities, the attacker must have valid credentials to access the web-based management interface of the affected device.</t>
+          <t>Cross-site scripting vulnerability in LuxCal Web Calendar prior to 5.2.3M (MySQL version) and LuxCal Web Calendar prior to 5.2.3L (SQLite version) allows a remote unauthenticated attacker to execute an arbitrary script on the web browser of the user who is using the product.</t>
         </is>
       </c>
     </row>
@@ -41239,23 +41237,22 @@
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>CVE-2023-20203</t>
+          <t>CVE-2023-39617</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20203</t>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39617</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="E1503" t="inlineStr">
         <is>
-          <t>Multiple vulnerabilities in the web-based management interface of Cisco Prime Infrastructure and Cisco Evolved Programmable Network Manager (EPNM) could allow an authenticated, remote attacker to conduct a stored cross-site scripting (XSS) attack against a user of the interface on an affected device.
- These vulnerabilities are due to insufficient validation of user-supplied input. An attacker could exploit these vulnerabilities by persuading a user of an affected interface to view a page containing malicious HTML or script content. A successful exploit could allow the attacker to execute arbitrary script code in the context of the affected interface or access sensitive, browser-based information. To exploit these vulnerabilities, the attacker must have valid credentials to access the web-based management interface of the affected device.</t>
+          <t>TOTOLINK X5000R_V9.1.0cu.2089_B20211224 and X5000R_V9.1.0cu.2350_B20230313 were discovered to contain a remote code execution (RCE) vulnerability via the lang parameter in the setLanguageCfg function.</t>
         </is>
       </c>
     </row>
@@ -41267,23 +41264,22 @@
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t>CVE-2023-20205</t>
+          <t>CVE-2023-39618</t>
         </is>
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20205</t>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39618</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="E1504" t="inlineStr">
         <is>
-          <t>Multiple vulnerabilities in the web-based management interface of Cisco Prime Infrastructure and Cisco Evolved Programmable Network Manager (EPNM) could allow an authenticated, remote attacker to conduct a stored cross-site scripting (XSS) attack against a user of the interface on an affected device.
- These vulnerabilities are due to insufficient validation of user-supplied input. An attacker could exploit these vulnerabilities by persuading a user of an affected interface to view a page containing malicious HTML or script content. A successful exploit could allow the attacker to execute arbitrary script code in the context of the affected interface or access sensitive, browser-based information. To exploit these vulnerabilities, the attacker must have valid credentials to access the web-based management interface of the affected device.</t>
+          <t>TOTOLINK X5000R B20210419 was discovered to contain a remote code execution (RCE) vulnerability via the setTracerouteCfg interface.</t>
         </is>
       </c>
     </row>
@@ -41295,23 +41291,22 @@
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>CVE-2023-20209</t>
+          <t>CVE-2023-39745</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20209</t>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39745</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>A vulnerability in the web-based management interface of Cisco Expressway Series and Cisco TelePresence Video Communication Server (VCS) could allow an authenticated, remote attacker with read-write privileges on the application to perform a command injection attack that could result in remote code execution on an affected device.
- This vulnerability is due to insufficient validation of user-supplied input. An attacker could exploit this vulnerability by sending a crafted request to the web-based management interface of an affected device. A successful exploit could allow the attacker to establish a remote shell with root privileges.</t>
+          <t>TP-Link TL-WR940N V2, TP-Link TL-WR941ND V5 and TP-Link TL-WR841N V8 were discovered to contain a buffer overflow via the component /userRpm/AccessCtrlAccessRulesRpm. This vulnerability allows attackers to cause a Denial of Service (DoS) via a crafted GET request.</t>
         </is>
       </c>
     </row>
@@ -41323,23 +41318,22 @@
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>CVE-2023-20211</t>
+          <t>CVE-2023-39747</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20211</t>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39747</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="E1506" t="inlineStr">
         <is>
-          <t>A vulnerability in the web-based management interface of Cisco Unified Communications Manager (Unified CM) and Cisco Unified Communications Manager Session Management Edition (Unified CM SME) could allow an authenticated, remote attacker to conduct SQL injection attacks on an affected system. 
- This vulnerability is due to improper validation of user-supplied input. An attacker could exploit this vulnerability by authenticating to the application as a user with read-only or higher privileges and sending crafted HTTP requests to an affected system. A successful exploit could allow the attacker to read or modify data in the underlying database or elevate their privileges.</t>
+          <t>TP-Link WR841N V8, TP-Link TL-WR940N V2, and TL-WR941ND V5 were discovered to contain a buffer overflow via the radiusSecret parameter at /userRpm/WlanSecurityRpm.</t>
         </is>
       </c>
     </row>
@@ -41351,23 +41345,22 @@
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>CVE-2023-20212</t>
+          <t>CVE-2023-39748</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20212</t>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39748</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="E1507" t="inlineStr">
         <is>
-          <t>A vulnerability in the AutoIt module of ClamAV could allow an unauthenticated, remote attacker to cause a denial of service (DoS) condition on an affected device. 
- This vulnerability is due to a logic error in the memory management of an affected device. An attacker could exploit this vulnerability by submitting a crafted AutoIt file to be scanned by ClamAV on the affected device. A successful exploit could allow the attacker to cause the ClamAV scanning process to restart unexpectedly, resulting in a DoS condition.</t>
+          <t>An issue in the component /userRpm/NetworkCfgRpm of TP-Link TL-WR1041N V2 allows attackers to cause a Denial of Service (DoS) via a crafted GET request.</t>
         </is>
       </c>
     </row>
@@ -41379,23 +41372,22 @@
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>CVE-2023-20217</t>
+          <t>CVE-2023-39749</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20217</t>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39749</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>A vulnerability in the CLI of Cisco ThousandEyes Enterprise Agent, Virtual Appliance installation type, could allow an authenticated, local attacker to elevate privileges on an affected device.
- This vulnerability is due to insufficient input validation by the operating system CLI. An attacker could exploit this vulnerability by issuing certain commands using sudo. A successful exploit could allow the attacker to view arbitrary files as root on the underlying operating system. The attacker must have valid credentials on the affected device.</t>
+          <t>D-Link DAP-2660 v1.13 was discovered to contain a buffer overflow via the component /adv_resource. This vulnerability is exploited via a crafted GET request.</t>
         </is>
       </c>
     </row>
@@ -41407,23 +41399,22 @@
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>CVE-2023-20221</t>
+          <t>CVE-2023-39750</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20221</t>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39750</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>A vulnerability in the web-based management interface of Cisco IP Phone 6800, 7800, and 8800 Series with Multiplatform Firmware could allow an unauthenticated, remote attacker to conduct a cross-site request forgery (CSRF) attack against a user of the web-based management interface of an affected system.
- This vulnerability is due to insufficient CSRF protections for the web-based management interface of an affected device. An attacker could exploit this vulnerability by persuading an authenticated user of the interface to follow a crafted link. A successful exploit could allow the attacker to perform a factory reset of the affected device, resulting in a Denial of Service (DoS) condition.</t>
+          <t>D-Link DAP-2660 v1.13 was discovered to contain a buffer overflow via the f_ipv6_enable parameter at /bsc_ipv6. This vulnerability is exploited via a crafted POST request.</t>
         </is>
       </c>
     </row>
@@ -41435,23 +41426,22 @@
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>CVE-2023-20222</t>
+          <t>CVE-2023-39751</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20222</t>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39751</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>A vulnerability in the web-based management interface of Cisco Prime Infrastructure and Cisco Evolved Programmable Network Manager (EPNM) could allow an unauthenticated, remote attacker to conduct a cross-site scripting (XSS) attack against a user of the interface on an affected device.
- The vulnerability is due to insufficient validation of user-supplied input by the web-based management interface of an affected system. An attacker could exploit this vulnerability by injecting malicious code into specific pages of the interface. A successful exploit could allow the attacker to execute arbitrary script code in the context of the affected interface or access sensitive, browser-based information.</t>
+          <t>TP-Link TL-WR941ND V6 were discovered to contain a buffer overflow via the pSize parameter at /userRpm/PingIframeRpm.</t>
         </is>
       </c>
     </row>
@@ -41463,23 +41453,22 @@
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>CVE-2023-20224</t>
+          <t>CVE-2023-39784</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20224</t>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39784</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="E1511" t="inlineStr">
         <is>
-          <t>A vulnerability in the CLI of Cisco ThousandEyes Enterprise Agent, Virtual Appliance installation type, could allow an authenticated, local attacker to elevate privileges to root on an affected device.
- This vulnerability is due to insufficient input validation of user-supplied CLI arguments. An attacker could exploit this vulnerability by authenticating to an affected device and using crafted commands at the prompt. A successful exploit could allow the attacker to execute arbitrary commands as root. The attacker must have valid credentials on the affected device.</t>
+          <t>Tenda AC8V4 V16.03.34.06 was discovered to contain a stack overflow via the list parameter in the save_virtualser_data function.</t>
         </is>
       </c>
     </row>
@@ -41491,23 +41480,22 @@
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>CVE-2023-20228</t>
+          <t>CVE-2023-39785</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20228</t>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39785</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>A vulnerability in the web-based management interface of Cisco Integrated Management Controller (IMC) could allow an unauthenticated, remote attacker to conduct a cross-site scripting (XSS) attack against a user of the interface.
- This vulnerability is due to insufficient validation of user input. An attacker could exploit this vulnerability by persuading a user of an affected interface to click a crafted link. A successful exploit could allow the attacker to execute arbitrary script code in the browser of the targeted user or access sensitive, browser-based information.</t>
+          <t>Tenda AC8V4 V16.03.34.06 was discovered to contain a stack overflow via the list parameter in the set_qosMib_list function.</t>
         </is>
       </c>
     </row>
@@ -41519,23 +41507,22 @@
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>CVE-2023-20229</t>
+          <t>CVE-2023-39786</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20229</t>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39786</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>A vulnerability in the CryptoService function of Cisco Duo Device Health Application for Windows could allow an authenticated, local attacker with low privileges to conduct directory traversal attacks and overwrite arbitrary files on an affected system.
- This vulnerability is due to insufficient input validation. An attacker could exploit this vulnerability by executing a directory traversal attack on an affected host. A successful exploit could allow an attacker to use a cryptographic key to overwrite arbitrary files with SYSTEM-level privileges, resulting in a denial of service (DoS) condition or data loss on the affected system.</t>
+          <t>Tenda AC8V4 V16.03.34.06 was discovered to contain a stack overflow via the time parameter in the sscanf function.</t>
         </is>
       </c>
     </row>
@@ -41547,23 +41534,22 @@
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>CVE-2023-20232</t>
+          <t>CVE-2023-39807</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20232</t>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39807</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>A vulnerability in the Tomcat implementation for Cisco Unified Contact Center Express (Unified CCX) could allow an unauthenticated, remote attacker to cause a web cache poisoning attack on an affected device. 
- This vulnerability is due to improper input validation of HTTP requests. An attacker could exploit this vulnerability by sending crafted HTTP requests to a specific API endpoint on the Unified CCX Finesse Portal. A successful exploit could allow the attacker to cause the internal WebProxy to redirect users to an attacker-controlled host.</t>
+          <t>N.V.K.INTER CO., LTD. (NVK) iBSG v3.5 was discovered to contain a SQL injection vulnerability via the a_passwd parameter at /portal/user-register.php.</t>
         </is>
       </c>
     </row>
@@ -41575,23 +41561,22 @@
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>CVE-2023-20237</t>
+          <t>CVE-2023-39808</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20237</t>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39808</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>A vulnerability in Cisco Intersight Virtual Appliance could allow an unauthenticated, adjacent attacker to access internal HTTP services that are otherwise inaccessible.
- This vulnerability is due to insufficient restrictions on internally accessible http proxies. An attacker could exploit this vulnerability by submitting a crafted CLI command. A successful exploit could allow the attacker access to internal subnets beyond the sphere of their intended access level.</t>
+          <t>N.V.K.INTER CO., LTD. (NVK) iBSG v3.5 was discovered to contain a hardcoded root password which allows attackers to login with root privileges via the SSH service.</t>
         </is>
       </c>
     </row>
@@ -41603,23 +41588,481 @@
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>CVE-2023-20242</t>
+          <t>CVE-2023-39809</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-20242</t>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39809</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>A vulnerability in the web-based management interface of Cisco Unified Communications Manager (Unified CM), Cisco Unified CM Session Management Edition (Unified CM SME), and Cisco Unified Communications Manager IM &amp;amp;amp; Presence Service (Unified CM IM&amp;amp;amp;P) could allow an unauthenticated, remote attacker to conduct a cross-site scripting (XSS) attack against a user of the interface.
- This vulnerability exists because the web-based management interface does not properly validate user-supplied input. An attacker could exploit this vulnerability by persuading a user of the interface to click a crafted link. A successful exploit could allow the attacker to execute arbitrary script code in the context of the affected interface or access sensitive, browser-based information.</t>
+          <t>N.V.K.INTER CO., LTD. (NVK) iBSG v3.5 was discovered to contain a command injection vulnerability via the system_hostname parameter at /manage/network-basic.php.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1517" t="inlineStr">
+        <is>
+          <t>CVE-2023-39939</t>
+        </is>
+      </c>
+      <c r="C1517" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-39939</t>
+        </is>
+      </c>
+      <c r="D1517" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E1517" t="inlineStr">
+        <is>
+          <t>SQL injection vulnerability in LuxCal Web Calendar prior to 5.2.3M (MySQL version) and LuxCal Web Calendar prior to 5.2.3L (SQLite version) allows a remote unauthenticated attacker to execute arbitrary queries against the database and obtain or alter the information in it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1518" t="inlineStr">
+        <is>
+          <t>CVE-2023-40068</t>
+        </is>
+      </c>
+      <c r="C1518" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40068</t>
+        </is>
+      </c>
+      <c r="D1518" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E1518" t="inlineStr">
+        <is>
+          <t>Cross-site scripting vulnerability in Advanced Custom Fields versions 6.1.0 to 6.1.7 and Advanced Custom Fields Pro versions 6.1.0 to 6.1.7 allows a remote authenticated attacker to execute an arbitrary script on the web browser of the user who is logging in to the product with the administrative privilege.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1519" t="inlineStr">
+        <is>
+          <t>CVE-2023-40251</t>
+        </is>
+      </c>
+      <c r="C1519" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40251</t>
+        </is>
+      </c>
+      <c r="D1519" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E1519" t="inlineStr">
+        <is>
+          <t>Missing Encryption of Sensitive Data vulnerability in Genians Genian NAC V4.0, Genians Genian NAC V5.0, Genians Genian NAC Suite V5.0, Genians Genian ZTNA allows Man in the Middle Attack.This issue affects Genian NAC V4.0: from V4.0.0 through V4.0.155; Genian NAC V5.0: from V5.0.0 through V5.0.42 (Revision 117460); Genian NAC Suite V5.0: from V5.0.0 through V5.0.54; Genian ZTNA: from V6.0.0 through V6.0.15.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1520" t="inlineStr">
+        <is>
+          <t>CVE-2023-40735</t>
+        </is>
+      </c>
+      <c r="C1520" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-40735</t>
+        </is>
+      </c>
+      <c r="D1520" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E1520" t="inlineStr">
+        <is>
+          <t>Exposure of Sensitive Information to an Unauthorized Actor vulnerability in BUTTERFLY BUTTON PROJECT - BUTTERFLY BUTTON (Architecture) allows loss of plausible deniability, confidentiality.This issue affects BUTTERFLY BUTTON: As of 2023-08-21.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1521" t="inlineStr">
+        <is>
+          <t>CVE-2023-4441</t>
+        </is>
+      </c>
+      <c r="C1521" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4441</t>
+        </is>
+      </c>
+      <c r="D1521" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E1521" t="inlineStr">
+        <is>
+          <t>A vulnerability was found in SourceCodester Free Hospital Management System for Small Practices 1.0. It has been declared as critical. This vulnerability affects unknown code of the file /patient/appointment.php. The manipulation of the argument sheduledate leads to sql injection. The attack can be initiated remotely. VDB-237562 is the identifier assigned to this vulnerability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1522" t="inlineStr">
+        <is>
+          <t>CVE-2023-4442</t>
+        </is>
+      </c>
+      <c r="C1522" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4442</t>
+        </is>
+      </c>
+      <c r="D1522" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E1522" t="inlineStr">
+        <is>
+          <t>A vulnerability was found in SourceCodester Free Hospital Management System for Small Practices 1.0. It has been rated as critical. This issue affects some unknown processing of the file \vm\patient\booking-complete.php. The manipulation of the argument userid/apponum/scheduleid leads to sql injection. The attack may be initiated remotely. The exploit has been disclosed to the public and may be used. The associated identifier of this vulnerability is VDB-237563.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t>CVE-2023-4443</t>
+        </is>
+      </c>
+      <c r="C1523" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4443</t>
+        </is>
+      </c>
+      <c r="D1523" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E1523" t="inlineStr">
+        <is>
+          <t>A vulnerability classified as critical has been found in SourceCodester Free Hospital Management System for Small Practices 1.0/5.0.12. Affected is an unknown function of the file vm\doctor\edit-doc.php. The manipulation of the argument id00/nic/oldemail/email/spec/Tele leads to sql injection. It is possible to launch the attack remotely. The exploit has been disclosed to the public and may be used. The identifier of this vulnerability is VDB-237564.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>CVE-2023-4444</t>
+        </is>
+      </c>
+      <c r="C1524" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4444</t>
+        </is>
+      </c>
+      <c r="D1524" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E1524" t="inlineStr">
+        <is>
+          <t>A vulnerability classified as critical was found in SourceCodester Free Hospital Management System for Small Practices 1.0. Affected by this vulnerability is an unknown functionality of the file vm\patient\edit-user.php. The manipulation of the argument id00/nic/oldemail/email/spec/Tele leads to sql injection. The attack can be launched remotely. The exploit has been disclosed to the public and may be used. The identifier VDB-237565 was assigned to this vulnerability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>CVE-2023-4445</t>
+        </is>
+      </c>
+      <c r="C1525" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4445</t>
+        </is>
+      </c>
+      <c r="D1525" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E1525" t="inlineStr">
+        <is>
+          <t>A vulnerability, which was classified as critical, has been found in Mini-Tmall up to 20230811. Affected by this issue is some unknown functionality of the file product/1/1?test=1&amp;amp;test2=2&amp;amp;. The manipulation of the argument orderBy leads to sql injection. The attack may be launched remotely. The exploit has been disclosed to the public and may be used. VDB-237566 is the identifier assigned to this vulnerability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>CVE-2023-4446</t>
+        </is>
+      </c>
+      <c r="C1526" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4446</t>
+        </is>
+      </c>
+      <c r="D1526" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E1526" t="inlineStr">
+        <is>
+          <t>A vulnerability, which was classified as critical, was found in OpenRapid RapidCMS 1.3.1. This affects an unknown part of the file template/default/category.php. The manipulation of the argument id leads to sql injection. The exploit has been disclosed to the public and may be used. The associated identifier of this vulnerability is VDB-237567.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1527" t="inlineStr">
+        <is>
+          <t>CVE-2023-4447</t>
+        </is>
+      </c>
+      <c r="C1527" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4447</t>
+        </is>
+      </c>
+      <c r="D1527" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E1527" t="inlineStr">
+        <is>
+          <t>A vulnerability has been found in OpenRapid RapidCMS 1.3.1 and classified as critical. This vulnerability affects unknown code of the file admin/article-chat.php. The manipulation of the argument id leads to sql injection. The attack can be initiated remotely. The exploit has been disclosed to the public and may be used. The identifier of this vulnerability is VDB-237568.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1528" t="inlineStr">
+        <is>
+          <t>CVE-2023-4448</t>
+        </is>
+      </c>
+      <c r="C1528" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4448</t>
+        </is>
+      </c>
+      <c r="D1528" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E1528" t="inlineStr">
+        <is>
+          <t>A vulnerability was found in OpenRapid RapidCMS 1.3.1 and classified as critical. This issue affects some unknown processing of the file admin/run-movepass.php. The manipulation of the argument password/password2 leads to weak password recovery. The attack may be initiated remotely. The exploit has been disclosed to the public and may be used. The identifier of the patch is 4dff387283060961c362d50105ff8da8ea40bcbe. It is recommended to apply a patch to fix this issue. The identifier VDB-237569 was assigned to this vulnerability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1529" t="inlineStr">
+        <is>
+          <t>CVE-2023-4449</t>
+        </is>
+      </c>
+      <c r="C1529" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4449</t>
+        </is>
+      </c>
+      <c r="D1529" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E1529" t="inlineStr">
+        <is>
+          <t>A vulnerability was found in SourceCodester Free and Open Source Inventory Management System 1.0. It has been classified as critical. Affected is an unknown function of the file /index.php?page=member. The manipulation of the argument columns[0][data] leads to sql injection. It is possible to launch the attack remotely. The exploit has been disclosed to the public and may be used. VDB-237570 is the identifier assigned to this vulnerability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>CVE-2023-4450</t>
+        </is>
+      </c>
+      <c r="C1530" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4450</t>
+        </is>
+      </c>
+      <c r="D1530" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E1530" t="inlineStr">
+        <is>
+          <t>A vulnerability was found in jeecgboot JimuReport up to 1.6.0. It has been declared as critical. Affected by this vulnerability is an unknown functionality of the component Template Handler. The manipulation leads to injection. The attack can be launched remotely. The exploit has been disclosed to the public and may be used. Upgrading to version 1.6.1 is able to address this issue. It is recommended to upgrade the affected component. The associated identifier of this vulnerability is VDB-237571.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1531" t="inlineStr">
+        <is>
+          <t>CVE-2023-4453</t>
+        </is>
+      </c>
+      <c r="C1531" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4453</t>
+        </is>
+      </c>
+      <c r="D1531" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E1531" t="inlineStr">
+        <is>
+          <t>Cross-site Scripting (XSS) - Reflected in GitHub repository pimcore/pimcore prior to 10.6.8.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1532" t="inlineStr">
+        <is>
+          <t>CVE-2023-4454</t>
+        </is>
+      </c>
+      <c r="C1532" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4454</t>
+        </is>
+      </c>
+      <c r="D1532" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E1532" t="inlineStr">
+        <is>
+          <t>Cross-Site Request Forgery (CSRF) in GitHub repository wallabag/wallabag prior to 2.6.3.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t>National Vulnerability Database</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr">
+        <is>
+          <t>CVE-2023-4455</t>
+        </is>
+      </c>
+      <c r="C1533" t="inlineStr">
+        <is>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2023-4455</t>
+        </is>
+      </c>
+      <c r="D1533" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E1533" t="inlineStr">
+        <is>
+          <t>Cross-Site Request Forgery (CSRF) in GitHub repository wallabag/wallabag prior to 2.6.3.</t>
         </is>
       </c>
     </row>
